--- a/tests/Test2.xlsx
+++ b/tests/Test2.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="18195" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="18195" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet4!$E$2:$E$131</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="143">
   <si>
     <t>Size(B)</t>
   </si>
@@ -440,6 +443,12 @@
   <si>
     <t>99 min</t>
   </si>
+  <si>
+    <t>exec</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
 </sst>
 </file>
 
@@ -568,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,6 +626,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1071,11 +1083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182557696"/>
-        <c:axId val="140994240"/>
+        <c:axId val="245133824"/>
+        <c:axId val="136502592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182557696"/>
+        <c:axId val="245133824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140994240"/>
+        <c:crossAx val="136502592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1092,7 +1104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140994240"/>
+        <c:axId val="136502592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182557696"/>
+        <c:crossAx val="245133824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1558,11 +1570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202920448"/>
-        <c:axId val="140995968"/>
+        <c:axId val="245135360"/>
+        <c:axId val="243852416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202920448"/>
+        <c:axId val="245135360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140995968"/>
+        <c:crossAx val="243852416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1579,7 +1591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140995968"/>
+        <c:axId val="243852416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202920448"/>
+        <c:crossAx val="245135360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2448,11 +2460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140997696"/>
-        <c:axId val="140998272"/>
+        <c:axId val="243854144"/>
+        <c:axId val="243854720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140997696"/>
+        <c:axId val="243854144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,12 +2505,12 @@
             <a:tailEnd type="triangle" w="lg" len="med"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="140998272"/>
+        <c:crossAx val="243854720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140998272"/>
+        <c:axId val="243854720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,7 +2551,7 @@
             <a:tailEnd type="triangle" w="lg" len="med"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="140997696"/>
+        <c:crossAx val="243854144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3397,11 +3409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141000000"/>
-        <c:axId val="203227136"/>
+        <c:axId val="243856448"/>
+        <c:axId val="243857024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141000000"/>
+        <c:axId val="243856448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3442,12 +3454,12 @@
             <a:tailEnd type="triangle" w="lg" len="med"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203227136"/>
+        <c:crossAx val="243857024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203227136"/>
+        <c:axId val="243857024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3488,7 +3500,7 @@
             <a:tailEnd type="triangle" w="lg" len="med"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="141000000"/>
+        <c:crossAx val="243856448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3501,6 +3513,1636 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.162729658792651E-2"/>
+          <c:y val="0.13936351706036745"/>
+          <c:w val="0.80866535433070863"/>
+          <c:h val="0.6835221638961797"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14497331583552056"/>
+                  <c:y val="-0.19585775736366287"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$C$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>218.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>496.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>474.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>176.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>434.31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>236.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>223.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>368.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>372.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>414.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>223.26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134.56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>288.42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>443.97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>209.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>345.28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>287.86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>247.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>203.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>193.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>353.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>300.62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>199.45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>142.18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>128.78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>182.13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>375.53</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>186.84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>460.47</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>349.69</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>250.41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>120.53</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>412.76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>420.84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>244.24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>122.65</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>262.87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>426.97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>172.92</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>334.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>171.27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>135.56</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>135.81</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>206.14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>144.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>485.04</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>190.01</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>314.17</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>197.63</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>235.68</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>123.48</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>306.62</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>153.16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>390.21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>122.16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>243.23</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>210.05</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>414.13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>354.57</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>167.49</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>126.15</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>243.98</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>156.72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>129.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>180.67</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>271.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>215.17</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>147.15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>410.02</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>380.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>229.24</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>166.44</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>271.37</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>126.78</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>120.08</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>298.56</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>166.23</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>476.72</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>182.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>177.42</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>177.98</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>204.71</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>156.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>167.35</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>175.38</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>384.2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>147.31</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>313.36</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>221.73</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>181.67</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>440.44</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>347.03</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>212.1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>173.78</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>237.35</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>360.28</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>439.23</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>159.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>224.12</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>164.24</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>219.36</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>169.44</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>485.97</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>405.87</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>127.95</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>156.69</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>254.77</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>193.58</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>381.32</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>448.52</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>133.75</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>165.9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>273.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>285.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>334.6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>201.3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>323.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$4:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="172313984"/>
+        <c:axId val="172314560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="172313984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.82054330708661427"/>
+              <c:y val="0.91108778069407992"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:tailEnd type="triangle" w="lg" len="med"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="172314560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="172314560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="2.2316637503645376E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:tailEnd type="triangle" w="lg" len="med"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="172313984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.162729658792651E-2"/>
+          <c:y val="0.13936351706036745"/>
+          <c:w val="0.80866535433070863"/>
+          <c:h val="0.6835221638961797"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16997331583552056"/>
+                  <c:y val="-4.6564596092155144E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$4:$J$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>218.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>496.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>474.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>176.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>434.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>223.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>368.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>372.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>223.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>443.97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>287.86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>353.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>460.47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>349.69</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120.53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>420.84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>244.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>122.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>262.87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>426.97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>172.92</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>334.92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>135.56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>135.81</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>485.04</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>190.01</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>314.17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>235.68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>306.62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>153.16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390.21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>243.23</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>210.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>414.13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>354.57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>167.49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>156.72</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>180.67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>271.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>147.15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>410.02</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>380.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>166.44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>271.37</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>126.78</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>298.56</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>177.42</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>177.98</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>204.71</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>156.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>175.38</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>384.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>181.67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>440.44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>173.78</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>237.35</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>360.28</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>439.23</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>159.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>219.36</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>169.44</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>485.97</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>156.69</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>254.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>381.32</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>448.52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>273.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>285.79000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$K$4:$K$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="136416064"/>
+        <c:axId val="136416640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="136416064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.82054330708661427"/>
+              <c:y val="0.91108778069407992"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:tailEnd type="triangle" w="lg" len="med"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="136416640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="136416640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="2.2316637503645376E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:tailEnd type="triangle" w="lg" len="med"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="136416064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3622,6 +5264,75 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6916,8 +8627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11829,12 +13540,2812 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:N131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>32532210</v>
+      </c>
+      <c r="C4" s="1">
+        <v>218.99</v>
+      </c>
+      <c r="D4" s="1">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>32532210</v>
+      </c>
+      <c r="J4" s="1">
+        <v>218.99</v>
+      </c>
+      <c r="K4" s="1">
+        <v>46</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>39202495</v>
+      </c>
+      <c r="C5" s="1">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>39202495</v>
+      </c>
+      <c r="J5" s="1">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>97</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>86553495</v>
+      </c>
+      <c r="C6" s="1">
+        <v>496.51</v>
+      </c>
+      <c r="D6" s="1">
+        <v>190</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>86553495</v>
+      </c>
+      <c r="J6" s="1">
+        <v>496.51</v>
+      </c>
+      <c r="K6" s="1">
+        <v>190</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>79267560</v>
+      </c>
+      <c r="C7" s="1">
+        <v>194.97</v>
+      </c>
+      <c r="D7" s="1">
+        <v>171</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>79267560</v>
+      </c>
+      <c r="J7" s="1">
+        <v>194.97</v>
+      </c>
+      <c r="K7" s="1">
+        <v>171</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>183379860</v>
+      </c>
+      <c r="C8" s="1">
+        <v>474.06</v>
+      </c>
+      <c r="D8" s="1">
+        <v>266</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>183379860</v>
+      </c>
+      <c r="J8" s="1">
+        <v>474.06</v>
+      </c>
+      <c r="K8" s="1">
+        <v>266</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>65086004</v>
+      </c>
+      <c r="C9" s="1">
+        <v>175.06</v>
+      </c>
+      <c r="D9" s="1">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1">
+        <v>65086004</v>
+      </c>
+      <c r="J9" s="1">
+        <v>175.06</v>
+      </c>
+      <c r="K9" s="1">
+        <v>77</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>15246262</v>
+      </c>
+      <c r="C10" s="1">
+        <v>136.1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>414</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1">
+        <v>37129694</v>
+      </c>
+      <c r="J10" s="1">
+        <v>140.38999999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>63</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>37129694</v>
+      </c>
+      <c r="C11" s="1">
+        <v>140.38999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>39562151</v>
+      </c>
+      <c r="J11" s="1">
+        <v>198.02</v>
+      </c>
+      <c r="K11" s="1">
+        <v>73</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>39562151</v>
+      </c>
+      <c r="C12" s="1">
+        <v>198.02</v>
+      </c>
+      <c r="D12" s="1">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1">
+        <v>36073765</v>
+      </c>
+      <c r="J12" s="1">
+        <v>176.84</v>
+      </c>
+      <c r="K12" s="1">
+        <v>89</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>36073765</v>
+      </c>
+      <c r="C13" s="1">
+        <v>176.84</v>
+      </c>
+      <c r="D13" s="1">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1">
+        <v>60034062</v>
+      </c>
+      <c r="J13" s="1">
+        <v>434.31</v>
+      </c>
+      <c r="K13" s="1">
+        <v>303</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>60034062</v>
+      </c>
+      <c r="C14" s="1">
+        <v>434.31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>303</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44816476</v>
+      </c>
+      <c r="J14" s="1">
+        <v>223.17</v>
+      </c>
+      <c r="K14" s="1">
+        <v>103</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>26594507</v>
+      </c>
+      <c r="C15" s="1">
+        <v>236.35</v>
+      </c>
+      <c r="D15" s="1">
+        <v>548</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1">
+        <v>123044382</v>
+      </c>
+      <c r="J15" s="1">
+        <v>368.11</v>
+      </c>
+      <c r="K15" s="1">
+        <v>168</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>44816476</v>
+      </c>
+      <c r="C16" s="1">
+        <v>223.17</v>
+      </c>
+      <c r="D16" s="1">
+        <v>103</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>82684358</v>
+      </c>
+      <c r="J16" s="1">
+        <v>372.31</v>
+      </c>
+      <c r="K16" s="1">
+        <v>162</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>123044382</v>
+      </c>
+      <c r="C17" s="1">
+        <v>368.11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>168</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1">
+        <v>36645396</v>
+      </c>
+      <c r="J17" s="1">
+        <v>223.26</v>
+      </c>
+      <c r="K17" s="1">
+        <v>75</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>82684358</v>
+      </c>
+      <c r="C18" s="1">
+        <v>372.31</v>
+      </c>
+      <c r="D18" s="1">
+        <v>162</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1">
+        <v>38012413</v>
+      </c>
+      <c r="J18" s="1">
+        <v>134.56</v>
+      </c>
+      <c r="K18" s="1">
+        <v>54</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>35366936</v>
+      </c>
+      <c r="C19" s="1">
+        <v>414.49</v>
+      </c>
+      <c r="D19" s="1">
+        <v>601</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1">
+        <v>98781561</v>
+      </c>
+      <c r="J19" s="1">
+        <v>443.97</v>
+      </c>
+      <c r="K19" s="1">
+        <v>187</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>36645396</v>
+      </c>
+      <c r="C20" s="1">
+        <v>223.26</v>
+      </c>
+      <c r="D20" s="1">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1">
+        <v>78717240</v>
+      </c>
+      <c r="J20" s="1">
+        <v>287.86</v>
+      </c>
+      <c r="K20" s="1">
+        <v>118</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>38012413</v>
+      </c>
+      <c r="C21" s="1">
+        <v>134.56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="1">
+        <v>99114303</v>
+      </c>
+      <c r="J21" s="1">
+        <v>353.27</v>
+      </c>
+      <c r="K21" s="1">
+        <v>225</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>17763421</v>
+      </c>
+      <c r="C22" s="1">
+        <v>288.42</v>
+      </c>
+      <c r="D22" s="1">
+        <v>599</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10925822</v>
+      </c>
+      <c r="J22" s="1">
+        <v>128.78</v>
+      </c>
+      <c r="K22" s="1">
+        <v>31</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>98781561</v>
+      </c>
+      <c r="C23" s="1">
+        <v>443.97</v>
+      </c>
+      <c r="D23" s="1">
+        <v>187</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1">
+        <v>134291663</v>
+      </c>
+      <c r="J23" s="1">
+        <v>460.47</v>
+      </c>
+      <c r="K23" s="1">
+        <v>280</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>23521286</v>
+      </c>
+      <c r="C24" s="1">
+        <v>209.8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>301</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="1">
+        <v>98727081</v>
+      </c>
+      <c r="J24" s="1">
+        <v>349.69</v>
+      </c>
+      <c r="K24" s="1">
+        <v>143</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>27598062</v>
+      </c>
+      <c r="C25" s="1">
+        <v>345.28</v>
+      </c>
+      <c r="D25" s="1">
+        <v>441</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="1">
+        <v>35149649</v>
+      </c>
+      <c r="J25" s="1">
+        <v>120.53</v>
+      </c>
+      <c r="K25" s="1">
+        <v>56</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>78717240</v>
+      </c>
+      <c r="C26" s="1">
+        <v>287.86</v>
+      </c>
+      <c r="D26" s="1">
+        <v>118</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1">
+        <v>81687470</v>
+      </c>
+      <c r="J26" s="1">
+        <v>420.84</v>
+      </c>
+      <c r="K26" s="1">
+        <v>178</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>11093690</v>
+      </c>
+      <c r="C27" s="1">
+        <v>247.6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>213</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1">
+        <v>33278259</v>
+      </c>
+      <c r="J27" s="1">
+        <v>244.24</v>
+      </c>
+      <c r="K27" s="1">
+        <v>53</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>8415945</v>
+      </c>
+      <c r="C28" s="1">
+        <v>203.88</v>
+      </c>
+      <c r="D28" s="1">
+        <v>375</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1">
+        <v>33182781</v>
+      </c>
+      <c r="J28" s="1">
+        <v>122.65</v>
+      </c>
+      <c r="K28" s="1">
+        <v>52</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>21020974</v>
+      </c>
+      <c r="C29" s="1">
+        <v>193.16</v>
+      </c>
+      <c r="D29" s="1">
+        <v>402</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="1">
+        <v>24124567</v>
+      </c>
+      <c r="J29" s="1">
+        <v>262.87</v>
+      </c>
+      <c r="K29" s="1">
+        <v>77</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>99114303</v>
+      </c>
+      <c r="C30" s="1">
+        <v>353.27</v>
+      </c>
+      <c r="D30" s="1">
+        <v>225</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="1">
+        <v>117718737</v>
+      </c>
+      <c r="J30" s="1">
+        <v>426.97</v>
+      </c>
+      <c r="K30" s="1">
+        <v>180</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>12595779</v>
+      </c>
+      <c r="C31" s="1">
+        <v>300.62</v>
+      </c>
+      <c r="D31" s="1">
+        <v>329</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="1">
+        <v>35647012</v>
+      </c>
+      <c r="J31" s="1">
+        <v>123.6</v>
+      </c>
+      <c r="K31" s="1">
+        <v>52</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>22435417</v>
+      </c>
+      <c r="C32" s="1">
+        <v>199.45</v>
+      </c>
+      <c r="D32" s="1">
+        <v>356</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="1">
+        <v>68986179</v>
+      </c>
+      <c r="J32" s="1">
+        <v>172.92</v>
+      </c>
+      <c r="K32" s="1">
+        <v>107</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>14713204</v>
+      </c>
+      <c r="C33" s="1">
+        <v>142.18</v>
+      </c>
+      <c r="D33" s="1">
+        <v>305</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="1">
+        <v>102887756</v>
+      </c>
+      <c r="J33" s="1">
+        <v>334.92</v>
+      </c>
+      <c r="K33" s="1">
+        <v>129</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>10925822</v>
+      </c>
+      <c r="C34" s="1">
+        <v>128.78</v>
+      </c>
+      <c r="D34" s="1">
+        <v>31</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="1">
+        <v>34913259</v>
+      </c>
+      <c r="J34" s="1">
+        <v>135.56</v>
+      </c>
+      <c r="K34" s="1">
+        <v>87</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>9603899</v>
+      </c>
+      <c r="C35" s="1">
+        <v>182.13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>235</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="1">
+        <v>30736755</v>
+      </c>
+      <c r="J35" s="1">
+        <v>135.81</v>
+      </c>
+      <c r="K35" s="1">
+        <v>49</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>29274109</v>
+      </c>
+      <c r="C36" s="1">
+        <v>375.53</v>
+      </c>
+      <c r="D36" s="1">
+        <v>628</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="1">
+        <v>137961720</v>
+      </c>
+      <c r="J36" s="1">
+        <v>485.04</v>
+      </c>
+      <c r="K36" s="1">
+        <v>262</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>12578567</v>
+      </c>
+      <c r="C37" s="1">
+        <v>186.84</v>
+      </c>
+      <c r="D37" s="1">
+        <v>207</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="1">
+        <v>34040175</v>
+      </c>
+      <c r="J37" s="1">
+        <v>190.01</v>
+      </c>
+      <c r="K37" s="1">
+        <v>63</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>134291663</v>
+      </c>
+      <c r="C38" s="1">
+        <v>460.47</v>
+      </c>
+      <c r="D38" s="1">
+        <v>280</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45608803</v>
+      </c>
+      <c r="J38" s="1">
+        <v>314.17</v>
+      </c>
+      <c r="K38" s="1">
+        <v>117</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>98727081</v>
+      </c>
+      <c r="C39" s="1">
+        <v>349.69</v>
+      </c>
+      <c r="D39" s="1">
+        <v>143</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="1">
+        <v>43764146</v>
+      </c>
+      <c r="J39" s="1">
+        <v>235.68</v>
+      </c>
+      <c r="K39" s="1">
+        <v>88</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>27994757</v>
+      </c>
+      <c r="C40" s="1">
+        <v>250.41</v>
+      </c>
+      <c r="D40" s="1">
+        <v>480</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="1">
+        <v>89822744</v>
+      </c>
+      <c r="J40" s="1">
+        <v>306.62</v>
+      </c>
+      <c r="K40" s="1">
+        <v>199</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>35149649</v>
+      </c>
+      <c r="C41" s="1">
+        <v>120.53</v>
+      </c>
+      <c r="D41" s="1">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="1">
+        <v>45849337</v>
+      </c>
+      <c r="J41" s="1">
+        <v>153.16</v>
+      </c>
+      <c r="K41" s="1">
+        <v>65</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>45712601</v>
+      </c>
+      <c r="C42" s="1">
+        <v>412.76</v>
+      </c>
+      <c r="D42" s="1">
+        <v>577</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="1">
+        <v>111235816</v>
+      </c>
+      <c r="J42" s="1">
+        <v>390.21</v>
+      </c>
+      <c r="K42" s="1">
+        <v>108</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>81687470</v>
+      </c>
+      <c r="C43" s="1">
+        <v>420.84</v>
+      </c>
+      <c r="D43" s="1">
+        <v>178</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="1">
+        <v>103624684</v>
+      </c>
+      <c r="J43" s="1">
+        <v>243.23</v>
+      </c>
+      <c r="K43" s="1">
+        <v>108</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>33278259</v>
+      </c>
+      <c r="C44" s="1">
+        <v>244.24</v>
+      </c>
+      <c r="D44" s="1">
+        <v>53</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="1">
+        <v>60394405</v>
+      </c>
+      <c r="J44" s="1">
+        <v>210.05</v>
+      </c>
+      <c r="K44" s="1">
+        <v>75</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>33182781</v>
+      </c>
+      <c r="C45" s="1">
+        <v>122.65</v>
+      </c>
+      <c r="D45" s="1">
+        <v>52</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="1">
+        <v>117337794</v>
+      </c>
+      <c r="J45" s="1">
+        <v>414.13</v>
+      </c>
+      <c r="K45" s="1">
+        <v>251</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>24124567</v>
+      </c>
+      <c r="C46" s="1">
+        <v>262.87</v>
+      </c>
+      <c r="D46" s="1">
+        <v>77</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="1">
+        <v>136879796</v>
+      </c>
+      <c r="J46" s="1">
+        <v>354.57</v>
+      </c>
+      <c r="K46" s="1">
+        <v>193</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>117718737</v>
+      </c>
+      <c r="C47" s="1">
+        <v>426.97</v>
+      </c>
+      <c r="D47" s="1">
+        <v>180</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="1">
+        <v>47209514</v>
+      </c>
+      <c r="J47" s="1">
+        <v>120</v>
+      </c>
+      <c r="K47" s="1">
+        <v>50</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>35647012</v>
+      </c>
+      <c r="C48" s="1">
+        <v>123.6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>52</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="1">
+        <v>46052806</v>
+      </c>
+      <c r="J48" s="1">
+        <v>167.49</v>
+      </c>
+      <c r="K48" s="1">
+        <v>60</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>68986179</v>
+      </c>
+      <c r="C49" s="1">
+        <v>172.92</v>
+      </c>
+      <c r="D49" s="1">
+        <v>107</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="1">
+        <v>12397768</v>
+      </c>
+      <c r="J49" s="1">
+        <v>156.72</v>
+      </c>
+      <c r="K49" s="1">
+        <v>46</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>102887756</v>
+      </c>
+      <c r="C50" s="1">
+        <v>334.92</v>
+      </c>
+      <c r="D50" s="1">
+        <v>129</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="1">
+        <v>35489411</v>
+      </c>
+      <c r="J50" s="1">
+        <v>129.61000000000001</v>
+      </c>
+      <c r="K50" s="1">
+        <v>32</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>8666482</v>
+      </c>
+      <c r="C51" s="1">
+        <v>171.27</v>
+      </c>
+      <c r="D51" s="1">
+        <v>117</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" s="1">
+        <v>52342500</v>
+      </c>
+      <c r="J51" s="1">
+        <v>180.67</v>
+      </c>
+      <c r="K51" s="1">
+        <v>41</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>34913259</v>
+      </c>
+      <c r="C52" s="1">
+        <v>135.56</v>
+      </c>
+      <c r="D52" s="1">
+        <v>87</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="1">
+        <v>82972304</v>
+      </c>
+      <c r="J52" s="1">
+        <v>271.35000000000002</v>
+      </c>
+      <c r="K52" s="1">
+        <v>158</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>30736755</v>
+      </c>
+      <c r="C53" s="1">
+        <v>135.81</v>
+      </c>
+      <c r="D53" s="1">
+        <v>49</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" s="1">
+        <v>9966528</v>
+      </c>
+      <c r="J53" s="1">
+        <v>147.15</v>
+      </c>
+      <c r="K53" s="1">
+        <v>30</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>23153645</v>
+      </c>
+      <c r="C54" s="1">
+        <v>206.14</v>
+      </c>
+      <c r="D54" s="1">
+        <v>340</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="1">
+        <v>132504522</v>
+      </c>
+      <c r="J54" s="1">
+        <v>454</v>
+      </c>
+      <c r="K54" s="1">
+        <v>370</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>6462422</v>
+      </c>
+      <c r="C55" s="1">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="D55" s="1">
+        <v>111</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="1">
+        <v>119686483</v>
+      </c>
+      <c r="J55" s="1">
+        <v>410.02</v>
+      </c>
+      <c r="K55" s="1">
+        <v>300</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>137961720</v>
+      </c>
+      <c r="C56" s="1">
+        <v>485.04</v>
+      </c>
+      <c r="D56" s="1">
+        <v>262</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="1">
+        <v>49111124</v>
+      </c>
+      <c r="J56" s="1">
+        <v>178.19</v>
+      </c>
+      <c r="K56" s="1">
+        <v>64</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>34040175</v>
+      </c>
+      <c r="C57" s="1">
+        <v>190.01</v>
+      </c>
+      <c r="D57" s="1">
+        <v>63</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="1">
+        <v>37076433</v>
+      </c>
+      <c r="J57" s="1">
+        <v>380.6</v>
+      </c>
+      <c r="K57" s="1">
+        <v>121</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>45608803</v>
+      </c>
+      <c r="C58" s="1">
+        <v>314.17</v>
+      </c>
+      <c r="D58" s="1">
+        <v>117</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="1">
+        <v>65826210</v>
+      </c>
+      <c r="J58" s="1">
+        <v>166.44</v>
+      </c>
+      <c r="K58" s="1">
+        <v>63</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>21975562</v>
+      </c>
+      <c r="C59" s="1">
+        <v>197.63</v>
+      </c>
+      <c r="D59" s="1">
+        <v>894</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="1">
+        <v>25354902</v>
+      </c>
+      <c r="J59" s="1">
+        <v>271.37</v>
+      </c>
+      <c r="K59" s="1">
+        <v>73</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>43764146</v>
+      </c>
+      <c r="C60" s="1">
+        <v>235.68</v>
+      </c>
+      <c r="D60" s="1">
+        <v>88</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="1">
+        <v>11700264</v>
+      </c>
+      <c r="J60" s="1">
+        <v>126.78</v>
+      </c>
+      <c r="K60" s="1">
+        <v>30</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>8498889</v>
+      </c>
+      <c r="C61" s="1">
+        <v>123.48</v>
+      </c>
+      <c r="D61" s="1">
+        <v>139</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61" s="1">
+        <v>82716993</v>
+      </c>
+      <c r="J61" s="1">
+        <v>298.56</v>
+      </c>
+      <c r="K61" s="1">
+        <v>107</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>89822744</v>
+      </c>
+      <c r="C62" s="1">
+        <v>306.62</v>
+      </c>
+      <c r="D62" s="1">
+        <v>199</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" s="1">
+        <v>70835162</v>
+      </c>
+      <c r="J62" s="1">
+        <v>177.42</v>
+      </c>
+      <c r="K62" s="1">
+        <v>102</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>45849337</v>
+      </c>
+      <c r="C63" s="1">
+        <v>153.16</v>
+      </c>
+      <c r="D63" s="1">
+        <v>65</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="1">
+        <v>38749983</v>
+      </c>
+      <c r="J63" s="1">
+        <v>177.98</v>
+      </c>
+      <c r="K63" s="1">
+        <v>32</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>111235816</v>
+      </c>
+      <c r="C64" s="1">
+        <v>390.21</v>
+      </c>
+      <c r="D64" s="1">
+        <v>108</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" s="1">
+        <v>60107612</v>
+      </c>
+      <c r="J64" s="1">
+        <v>204.71</v>
+      </c>
+      <c r="K64" s="1">
+        <v>140</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>11384057</v>
+      </c>
+      <c r="C65" s="1">
+        <v>122.16</v>
+      </c>
+      <c r="D65" s="1">
+        <v>179</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="1">
+        <v>40542874</v>
+      </c>
+      <c r="J65" s="1">
+        <v>156.36000000000001</v>
+      </c>
+      <c r="K65" s="1">
+        <v>32</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>103624684</v>
+      </c>
+      <c r="C66" s="1">
+        <v>243.23</v>
+      </c>
+      <c r="D66" s="1">
+        <v>108</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66" s="1">
+        <v>11979003</v>
+      </c>
+      <c r="J66" s="1">
+        <v>175.38</v>
+      </c>
+      <c r="K66" s="1">
+        <v>58</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>60394405</v>
+      </c>
+      <c r="C67" s="1">
+        <v>210.05</v>
+      </c>
+      <c r="D67" s="1">
+        <v>75</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="1">
+        <v>112133102</v>
+      </c>
+      <c r="J67" s="1">
+        <v>384.2</v>
+      </c>
+      <c r="K67" s="1">
+        <v>84</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>117337794</v>
+      </c>
+      <c r="C68" s="1">
+        <v>414.13</v>
+      </c>
+      <c r="D68" s="1">
+        <v>251</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" s="1">
+        <v>22202665</v>
+      </c>
+      <c r="J68" s="1">
+        <v>157.5</v>
+      </c>
+      <c r="K68" s="1">
+        <v>21</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>136879796</v>
+      </c>
+      <c r="C69" s="1">
+        <v>354.57</v>
+      </c>
+      <c r="D69" s="1">
+        <v>193</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" s="1">
+        <v>42137658</v>
+      </c>
+      <c r="J69" s="1">
+        <v>181.67</v>
+      </c>
+      <c r="K69" s="1">
+        <v>94</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>47209514</v>
+      </c>
+      <c r="C70" s="1">
+        <v>120</v>
+      </c>
+      <c r="D70" s="1">
+        <v>50</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70" s="1">
+        <v>39648073</v>
+      </c>
+      <c r="J70" s="1">
+        <v>440.44</v>
+      </c>
+      <c r="K70" s="1">
+        <v>232</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>46052806</v>
+      </c>
+      <c r="C71" s="1">
+        <v>167.49</v>
+      </c>
+      <c r="D71" s="1">
+        <v>60</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I71" s="1">
+        <v>14853252</v>
+      </c>
+      <c r="J71" s="1">
+        <v>173.78</v>
+      </c>
+      <c r="K71" s="1">
+        <v>40</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>14117962</v>
+      </c>
+      <c r="C72" s="1">
+        <v>126.15</v>
+      </c>
+      <c r="D72" s="1">
+        <v>187</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="1">
+        <v>66928253</v>
+      </c>
+      <c r="J72" s="1">
+        <v>237.35</v>
+      </c>
+      <c r="K72" s="1">
+        <v>104</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>27882961</v>
+      </c>
+      <c r="C73" s="1">
+        <v>243.98</v>
+      </c>
+      <c r="D73" s="1">
+        <v>377</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="1">
+        <v>105514441</v>
+      </c>
+      <c r="J73" s="1">
+        <v>360.28</v>
+      </c>
+      <c r="K73" s="1">
+        <v>195</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>12397768</v>
+      </c>
+      <c r="C74" s="1">
+        <v>156.72</v>
+      </c>
+      <c r="D74" s="1">
+        <v>46</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74" s="1">
+        <v>126887772</v>
+      </c>
+      <c r="J74" s="1">
+        <v>439.23</v>
+      </c>
+      <c r="K74" s="1">
+        <v>199</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>35489411</v>
+      </c>
+      <c r="C75" s="1">
+        <v>129.61000000000001</v>
+      </c>
+      <c r="D75" s="1">
+        <v>32</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75" s="1">
+        <v>14668340</v>
+      </c>
+      <c r="J75" s="1">
+        <v>159.83000000000001</v>
+      </c>
+      <c r="K75" s="1">
+        <v>63</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>52342500</v>
+      </c>
+      <c r="C76" s="1">
+        <v>180.67</v>
+      </c>
+      <c r="D76" s="1">
+        <v>41</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76" s="1">
+        <v>81093676</v>
+      </c>
+      <c r="J76" s="1">
+        <v>219.36</v>
+      </c>
+      <c r="K76" s="1">
+        <v>103</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>82972304</v>
+      </c>
+      <c r="C77" s="1">
+        <v>271.35000000000002</v>
+      </c>
+      <c r="D77" s="1">
+        <v>158</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I77" s="1">
+        <v>26222772</v>
+      </c>
+      <c r="J77" s="1">
+        <v>169.44</v>
+      </c>
+      <c r="K77" s="1">
+        <v>35</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>16188632</v>
+      </c>
+      <c r="C78" s="1">
+        <v>215.17</v>
+      </c>
+      <c r="D78" s="1">
+        <v>908</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I78" s="1">
+        <v>49567398</v>
+      </c>
+      <c r="J78" s="1">
+        <v>485.97</v>
+      </c>
+      <c r="K78" s="1">
+        <v>171</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>9966528</v>
+      </c>
+      <c r="C79" s="1">
+        <v>147.15</v>
+      </c>
+      <c r="D79" s="1">
+        <v>30</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I79" s="1">
+        <v>14214895</v>
+      </c>
+      <c r="J79" s="1">
+        <v>156.69</v>
+      </c>
+      <c r="K79" s="1">
+        <v>36</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>132504522</v>
+      </c>
+      <c r="C80" s="1">
+        <v>454</v>
+      </c>
+      <c r="D80" s="1">
+        <v>370</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I80" s="1">
+        <v>60394120</v>
+      </c>
+      <c r="J80" s="1">
+        <v>254.77</v>
+      </c>
+      <c r="K80" s="1">
+        <v>99</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>119686483</v>
+      </c>
+      <c r="C81" s="1">
+        <v>410.02</v>
+      </c>
+      <c r="D81" s="1">
+        <v>300</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I81" s="1">
+        <v>152089562</v>
+      </c>
+      <c r="J81" s="1">
+        <v>381.32</v>
+      </c>
+      <c r="K81" s="1">
+        <v>243</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>49111124</v>
+      </c>
+      <c r="C82" s="1">
+        <v>178.19</v>
+      </c>
+      <c r="D82" s="1">
+        <v>64</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82" s="1">
+        <v>104889308</v>
+      </c>
+      <c r="J82" s="1">
+        <v>448.52</v>
+      </c>
+      <c r="K82" s="1">
+        <v>204</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>37076433</v>
+      </c>
+      <c r="C83" s="1">
+        <v>380.6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>121</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83" s="1">
+        <v>25193277</v>
+      </c>
+      <c r="J83" s="1">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="K83" s="1">
+        <v>78</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>17811593</v>
+      </c>
+      <c r="C84" s="1">
+        <v>229.24</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1058</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I84" s="1">
+        <v>78458416</v>
+      </c>
+      <c r="J84" s="1">
+        <v>285.79000000000002</v>
+      </c>
+      <c r="K84" s="1">
+        <v>102</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>65826210</v>
+      </c>
+      <c r="C85" s="1">
+        <v>166.44</v>
+      </c>
+      <c r="D85" s="1">
+        <v>63</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>25354902</v>
+      </c>
+      <c r="C86" s="1">
+        <v>271.37</v>
+      </c>
+      <c r="D86" s="1">
+        <v>73</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>11700264</v>
+      </c>
+      <c r="C87" s="1">
+        <v>126.78</v>
+      </c>
+      <c r="D87" s="1">
+        <v>30</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>12763123</v>
+      </c>
+      <c r="C88" s="1">
+        <v>120.08</v>
+      </c>
+      <c r="D88" s="1">
+        <v>147</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>82716993</v>
+      </c>
+      <c r="C89" s="1">
+        <v>298.56</v>
+      </c>
+      <c r="D89" s="1">
+        <v>107</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>18891669</v>
+      </c>
+      <c r="C90" s="1">
+        <v>166.23</v>
+      </c>
+      <c r="D90" s="1">
+        <v>412</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>52994332</v>
+      </c>
+      <c r="C91" s="1">
+        <v>476.72</v>
+      </c>
+      <c r="D91" s="1">
+        <v>647</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>19433661</v>
+      </c>
+      <c r="C92" s="1">
+        <v>182.2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>473</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>70835162</v>
+      </c>
+      <c r="C93" s="1">
+        <v>177.42</v>
+      </c>
+      <c r="D93" s="1">
+        <v>102</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>38749983</v>
+      </c>
+      <c r="C94" s="1">
+        <v>177.98</v>
+      </c>
+      <c r="D94" s="1">
+        <v>32</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>60107612</v>
+      </c>
+      <c r="C95" s="1">
+        <v>204.71</v>
+      </c>
+      <c r="D95" s="1">
+        <v>140</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>40542874</v>
+      </c>
+      <c r="C96" s="1">
+        <v>156.36000000000001</v>
+      </c>
+      <c r="D96" s="1">
+        <v>32</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>13355012</v>
+      </c>
+      <c r="C97" s="1">
+        <v>167.35</v>
+      </c>
+      <c r="D97" s="1">
+        <v>316</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>11979003</v>
+      </c>
+      <c r="C98" s="1">
+        <v>175.38</v>
+      </c>
+      <c r="D98" s="1">
+        <v>58</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>112133102</v>
+      </c>
+      <c r="C99" s="1">
+        <v>384.2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>84</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>15741315</v>
+      </c>
+      <c r="C100" s="1">
+        <v>147.31</v>
+      </c>
+      <c r="D100" s="1">
+        <v>677</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>14745834</v>
+      </c>
+      <c r="C101" s="1">
+        <v>313.36</v>
+      </c>
+      <c r="D101" s="1">
+        <v>451</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>22202665</v>
+      </c>
+      <c r="C102" s="1">
+        <v>157.5</v>
+      </c>
+      <c r="D102" s="1">
+        <v>21</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>12720315</v>
+      </c>
+      <c r="C103" s="1">
+        <v>221.73</v>
+      </c>
+      <c r="D103" s="1">
+        <v>356</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>42137658</v>
+      </c>
+      <c r="C104" s="1">
+        <v>181.67</v>
+      </c>
+      <c r="D104" s="1">
+        <v>94</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>39648073</v>
+      </c>
+      <c r="C105" s="1">
+        <v>440.44</v>
+      </c>
+      <c r="D105" s="1">
+        <v>232</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>27877359</v>
+      </c>
+      <c r="C106" s="1">
+        <v>347.03</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2116</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>21406952</v>
+      </c>
+      <c r="C107" s="1">
+        <v>212.1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>993</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>14853252</v>
+      </c>
+      <c r="C108" s="1">
+        <v>173.78</v>
+      </c>
+      <c r="D108" s="1">
+        <v>40</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>66928253</v>
+      </c>
+      <c r="C109" s="1">
+        <v>237.35</v>
+      </c>
+      <c r="D109" s="1">
+        <v>104</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <v>105514441</v>
+      </c>
+      <c r="C110" s="1">
+        <v>360.28</v>
+      </c>
+      <c r="D110" s="1">
+        <v>195</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>126887772</v>
+      </c>
+      <c r="C111" s="1">
+        <v>439.23</v>
+      </c>
+      <c r="D111" s="1">
+        <v>199</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>14668340</v>
+      </c>
+      <c r="C112" s="1">
+        <v>159.83000000000001</v>
+      </c>
+      <c r="D112" s="1">
+        <v>63</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="1">
+        <v>24834800</v>
+      </c>
+      <c r="C113" s="1">
+        <v>224.12</v>
+      </c>
+      <c r="D113" s="1">
+        <v>377</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>11268040</v>
+      </c>
+      <c r="C114" s="1">
+        <v>164.24</v>
+      </c>
+      <c r="D114" s="1">
+        <v>665</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>81093676</v>
+      </c>
+      <c r="C115" s="1">
+        <v>219.36</v>
+      </c>
+      <c r="D115" s="1">
+        <v>103</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="1">
+        <v>26222772</v>
+      </c>
+      <c r="C116" s="1">
+        <v>169.44</v>
+      </c>
+      <c r="D116" s="1">
+        <v>35</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="1">
+        <v>49567398</v>
+      </c>
+      <c r="C117" s="1">
+        <v>485.97</v>
+      </c>
+      <c r="D117" s="1">
+        <v>171</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="1">
+        <v>31791856</v>
+      </c>
+      <c r="C118" s="1">
+        <v>405.87</v>
+      </c>
+      <c r="D118" s="1">
+        <v>481</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="1">
+        <v>4779660</v>
+      </c>
+      <c r="C119" s="1">
+        <v>127.95</v>
+      </c>
+      <c r="D119" s="1">
+        <v>119</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>14214895</v>
+      </c>
+      <c r="C120" s="1">
+        <v>156.69</v>
+      </c>
+      <c r="D120" s="1">
+        <v>36</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>60394120</v>
+      </c>
+      <c r="C121" s="1">
+        <v>254.77</v>
+      </c>
+      <c r="D121" s="1">
+        <v>99</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="1">
+        <v>7118643</v>
+      </c>
+      <c r="C122" s="1">
+        <v>193.58</v>
+      </c>
+      <c r="D122" s="1">
+        <v>154</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>152089562</v>
+      </c>
+      <c r="C123" s="1">
+        <v>381.32</v>
+      </c>
+      <c r="D123" s="1">
+        <v>243</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>104889308</v>
+      </c>
+      <c r="C124" s="1">
+        <v>448.52</v>
+      </c>
+      <c r="D124" s="1">
+        <v>204</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>5271179</v>
+      </c>
+      <c r="C125" s="1">
+        <v>133.75</v>
+      </c>
+      <c r="D125" s="1">
+        <v>114</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="1">
+        <v>14613261</v>
+      </c>
+      <c r="C126" s="1">
+        <v>165.9</v>
+      </c>
+      <c r="D126" s="1">
+        <v>130</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="1">
+        <v>25193277</v>
+      </c>
+      <c r="C127" s="1">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="D127" s="1">
+        <v>78</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="1">
+        <v>78458416</v>
+      </c>
+      <c r="C128" s="1">
+        <v>285.79000000000002</v>
+      </c>
+      <c r="D128" s="1">
+        <v>102</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="1">
+        <v>36434121</v>
+      </c>
+      <c r="C129" s="1">
+        <v>334.6</v>
+      </c>
+      <c r="D129" s="1">
+        <v>378</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>22652453</v>
+      </c>
+      <c r="C130" s="1">
+        <v>201.3</v>
+      </c>
+      <c r="D130" s="1">
+        <v>908</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="1">
+        <v>21954173</v>
+      </c>
+      <c r="C131" s="1">
+        <v>323.3</v>
+      </c>
+      <c r="D131" s="1">
+        <v>861</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="E2:E131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/Test2.xlsx
+++ b/tests/Test2.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert/Work/video_processing/tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7961C67-8E49-0747-88C3-1A4D5B653E26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="18195" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet4!$E$2:$E$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$E$2:$E$131</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="143">
   <si>
     <t>Size(B)</t>
   </si>
@@ -453,8 +460,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +477,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -479,7 +494,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -491,77 +506,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -577,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,41 +538,33 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -641,12 +577,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -660,7 +599,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1072,6 +1010,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FBB-6A41-9CC9-4849272EBFD3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1081,7 +1024,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="245133824"/>
         <c:axId val="136502592"/>
@@ -1091,7 +1033,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1111,13 +1053,13 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="245133824"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1133,7 +1075,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1147,7 +1089,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1559,6 +1500,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A33-E943-80CC-BBE495282CB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1568,7 +1514,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="245135360"/>
         <c:axId val="243852416"/>
@@ -1578,7 +1523,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1620,7 +1565,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1634,7 +1579,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1664,6 +1608,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.3320655672757973E-2"/>
+                  <c:y val="-1.0672572178477691E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$3:$D$130</c:f>
@@ -2451,6 +2409,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-418C-7044-8158-562AB25B1491}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2490,8 +2453,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.82054330708661427"/>
-              <c:y val="0.91108778069407992"/>
+              <c:x val="0.9098515327093547"/>
+              <c:y val="0.78608778069407992"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2536,8 +2499,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="8.3333333333333332E-3"/>
-              <c:y val="2.2316637503645376E-2"/>
+              <c:x val="5.3616401723369483E-2"/>
+              <c:y val="3.1575896762904634E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2569,7 +2532,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2583,7 +2546,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2613,6 +2575,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3388203833011531E-2"/>
+                  <c:y val="-4.0478273549139694E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$130</c:f>
@@ -3400,6 +3376,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D30D-CD49-B2FB-D9CC62022858}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3430,7 +3411,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Size (KB)</a:t>
+                  <a:t>Size (B)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3439,8 +3420,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.85651137357830265"/>
-              <c:y val="0.91666666666666663"/>
+              <c:x val="0.91814658545040362"/>
+              <c:y val="0.77777777777777779"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3485,8 +3466,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="8.3333333333333332E-3"/>
-              <c:y val="2.9677748614756489E-2"/>
+              <c:x val="4.7327093547268856E-2"/>
+              <c:y val="3.4307378244386115E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3518,7 +3499,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4356,6 +4337,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2914-3B43-A8A9-366521A51054}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4474,7 +4460,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5030,6 +5016,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57AF-064B-8A25-84F574E545F3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5164,7 +5155,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5194,7 +5191,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5224,7 +5227,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5254,7 +5263,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5289,7 +5304,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5321,7 +5342,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5384,7 +5411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5417,9 +5444,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5452,6 +5496,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5627,16 +5688,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y51" sqref="Y51"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="3" customWidth="1"/>
     <col min="4" max="5" width="14" style="1" customWidth="1"/>
@@ -5644,2975 +5705,2975 @@
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" s="4"/>
-      <c r="C1" s="10"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="13">
         <v>32532210</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="14">
         <f>B3/1024</f>
         <v>31769.736328125</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>218.99</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>46</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="15">
         <f>D3/E3</f>
         <v>4.7606521739130434</v>
       </c>
-      <c r="G3" s="13">
-        <f t="shared" ref="G3:G17" si="0">B3/E3</f>
+      <c r="G3" s="16">
+        <f>B3/E3</f>
         <v>707221.95652173914</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="13">
         <v>39202495</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="14">
         <f>B4/1024</f>
         <v>38283.6865234375</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>143.47999999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>97</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="15">
         <f>D4/E4</f>
         <v>1.4791752577319586</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="16">
+        <f>B4/E4</f>
+        <v>404149.43298969074</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="13">
+        <v>86553495</v>
+      </c>
+      <c r="C5" s="14">
+        <f>B5/1024</f>
+        <v>84524.8974609375</v>
+      </c>
+      <c r="D5" s="13">
+        <v>496.51</v>
+      </c>
+      <c r="E5" s="13">
+        <v>190</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" ref="F5:F68" si="0">D5/E5</f>
+        <v>2.6132105263157892</v>
+      </c>
+      <c r="G5" s="16">
+        <f>B5/E5</f>
+        <v>455544.71052631579</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="13">
+        <v>79267560</v>
+      </c>
+      <c r="C6" s="14">
+        <f>B6/1024</f>
+        <v>77409.7265625</v>
+      </c>
+      <c r="D6" s="13">
+        <v>194.97</v>
+      </c>
+      <c r="E6" s="13">
+        <v>171</v>
+      </c>
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
-        <v>404149.43298969074</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
-        <v>86553495</v>
-      </c>
-      <c r="C5" s="10">
-        <f t="shared" ref="C5:C68" si="1">B5/1024</f>
-        <v>84524.8974609375</v>
-      </c>
-      <c r="D5" s="11">
-        <v>496.51</v>
-      </c>
-      <c r="E5" s="11">
-        <v>190</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" ref="F5:F68" si="2">D5/E5</f>
-        <v>2.6132105263157892</v>
-      </c>
-      <c r="G5" s="13">
+        <v>1.1401754385964913</v>
+      </c>
+      <c r="G6" s="16">
+        <f>B6/E6</f>
+        <v>463552.98245614034</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="13">
+        <v>183379860</v>
+      </c>
+      <c r="C7" s="14">
+        <f>B7/1024</f>
+        <v>179081.89453125</v>
+      </c>
+      <c r="D7" s="13">
+        <v>474.06</v>
+      </c>
+      <c r="E7" s="13">
+        <v>266</v>
+      </c>
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>455544.71052631579</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
-        <v>79267560</v>
-      </c>
-      <c r="C6" s="10">
+        <v>1.7821804511278196</v>
+      </c>
+      <c r="G7" s="16">
+        <f>B7/E7</f>
+        <v>689397.96992481197</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="13">
+        <v>65086004</v>
+      </c>
+      <c r="C8" s="14">
+        <f>B8/1024</f>
+        <v>63560.55078125</v>
+      </c>
+      <c r="D8" s="13">
+        <v>175.06</v>
+      </c>
+      <c r="E8" s="13">
+        <v>77</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>2.2735064935064937</v>
+      </c>
+      <c r="G8" s="16">
+        <f>B8/E8</f>
+        <v>845272.77922077919</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="13">
+        <v>15246262</v>
+      </c>
+      <c r="C9" s="14">
+        <f>B9/1024</f>
+        <v>14888.927734375</v>
+      </c>
+      <c r="D9" s="13">
+        <v>136.1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>414</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.32874396135265699</v>
+      </c>
+      <c r="G9" s="16">
+        <f>B9/E9</f>
+        <v>36826.719806763285</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="13">
+        <v>37129694</v>
+      </c>
+      <c r="C10" s="14">
+        <f>B10/1024</f>
+        <v>36259.466796875</v>
+      </c>
+      <c r="D10" s="13">
+        <v>140.38999999999999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>63</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>2.2284126984126984</v>
+      </c>
+      <c r="G10" s="16">
+        <f>B10/E10</f>
+        <v>589360.22222222225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="13">
+        <v>39562151</v>
+      </c>
+      <c r="C11" s="14">
+        <f>B11/1024</f>
+        <v>38634.9130859375</v>
+      </c>
+      <c r="D11" s="13">
+        <v>198.02</v>
+      </c>
+      <c r="E11" s="13">
+        <v>73</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>2.7126027397260275</v>
+      </c>
+      <c r="G11" s="16">
+        <f>B11/E11</f>
+        <v>541947.27397260279</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="13">
+        <v>36073765</v>
+      </c>
+      <c r="C12" s="14">
+        <f>B12/1024</f>
+        <v>35228.2861328125</v>
+      </c>
+      <c r="D12" s="13">
+        <v>176.84</v>
+      </c>
+      <c r="E12" s="13">
+        <v>89</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>1.9869662921348314</v>
+      </c>
+      <c r="G12" s="16">
+        <f>B12/E12</f>
+        <v>405323.20224719099</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="13">
+        <v>60034062</v>
+      </c>
+      <c r="C13" s="14">
+        <f>B13/1024</f>
+        <v>58627.013671875</v>
+      </c>
+      <c r="D13" s="13">
+        <v>434.31</v>
+      </c>
+      <c r="E13" s="13">
+        <v>303</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4333663366336633</v>
+      </c>
+      <c r="G13" s="16">
+        <f>B13/E13</f>
+        <v>198132.21782178216</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="13">
+        <v>26594507</v>
+      </c>
+      <c r="C14" s="14">
+        <f>B14/1024</f>
+        <v>25971.1982421875</v>
+      </c>
+      <c r="D14" s="13">
+        <v>236.35</v>
+      </c>
+      <c r="E14" s="13">
+        <v>548</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.43129562043795622</v>
+      </c>
+      <c r="G14" s="16">
+        <f>B14/E14</f>
+        <v>48530.122262773722</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="13">
+        <v>44816476</v>
+      </c>
+      <c r="C15" s="14">
+        <f>B15/1024</f>
+        <v>43766.08984375</v>
+      </c>
+      <c r="D15" s="13">
+        <v>223.17</v>
+      </c>
+      <c r="E15" s="13">
+        <v>103</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="0"/>
+        <v>2.1666990291262134</v>
+      </c>
+      <c r="G15" s="16">
+        <f>B15/E15</f>
+        <v>435111.41747572814</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="13">
+        <v>123044382</v>
+      </c>
+      <c r="C16" s="14">
+        <f>B16/1024</f>
+        <v>120160.529296875</v>
+      </c>
+      <c r="D16" s="13">
+        <v>368.11</v>
+      </c>
+      <c r="E16" s="13">
+        <v>168</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>2.1911309523809526</v>
+      </c>
+      <c r="G16" s="16">
+        <f>B16/E16</f>
+        <v>732407.03571428568</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="13">
+        <v>82684358</v>
+      </c>
+      <c r="C17" s="14">
+        <f>B17/1024</f>
+        <v>80746.443359375</v>
+      </c>
+      <c r="D17" s="13">
+        <v>372.31</v>
+      </c>
+      <c r="E17" s="13">
+        <v>162</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="0"/>
+        <v>2.29820987654321</v>
+      </c>
+      <c r="G17" s="16">
+        <f>B17/E17</f>
+        <v>510397.27160493826</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="13">
+        <v>35366936</v>
+      </c>
+      <c r="C18" s="14">
+        <f>B18/1024</f>
+        <v>34538.0234375</v>
+      </c>
+      <c r="D18" s="13">
+        <v>414.49</v>
+      </c>
+      <c r="E18" s="13">
+        <v>601</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.68966722129783697</v>
+      </c>
+      <c r="G18" s="16">
+        <f>B18/E18</f>
+        <v>58846.815307820303</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="13">
+        <v>36645396</v>
+      </c>
+      <c r="C19" s="14">
+        <f>B19/1024</f>
+        <v>35786.51953125</v>
+      </c>
+      <c r="D19" s="13">
+        <v>223.26</v>
+      </c>
+      <c r="E19" s="13">
+        <v>75</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="0"/>
+        <v>2.9767999999999999</v>
+      </c>
+      <c r="G19" s="16">
+        <f>B19/E19</f>
+        <v>488605.28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="13">
+        <v>38012413</v>
+      </c>
+      <c r="C20" s="14">
+        <f>B20/1024</f>
+        <v>37121.4970703125</v>
+      </c>
+      <c r="D20" s="13">
+        <v>134.56</v>
+      </c>
+      <c r="E20" s="13">
+        <v>54</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>2.4918518518518518</v>
+      </c>
+      <c r="G20" s="16">
+        <f>B20/E20</f>
+        <v>703933.57407407404</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="13">
+        <v>17763421</v>
+      </c>
+      <c r="C21" s="14">
+        <f>B21/1024</f>
+        <v>17347.0908203125</v>
+      </c>
+      <c r="D21" s="13">
+        <v>288.42</v>
+      </c>
+      <c r="E21" s="13">
+        <v>599</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.48150250417362273</v>
+      </c>
+      <c r="G21" s="16">
+        <f>B21/E21</f>
+        <v>29655.126878130217</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <v>98781561</v>
+      </c>
+      <c r="C22" s="14">
+        <f>B22/1024</f>
+        <v>96466.3681640625</v>
+      </c>
+      <c r="D22" s="13">
+        <v>443.97</v>
+      </c>
+      <c r="E22" s="13">
+        <v>187</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3741711229946527</v>
+      </c>
+      <c r="G22" s="16">
+        <f>B22/E22</f>
+        <v>528243.64171122992</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="13">
+        <v>23521286</v>
+      </c>
+      <c r="C23" s="14">
+        <f>B23/1024</f>
+        <v>22970.005859375</v>
+      </c>
+      <c r="D23" s="13">
+        <v>209.8</v>
+      </c>
+      <c r="E23" s="13">
+        <v>301</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>0.69700996677740867</v>
+      </c>
+      <c r="G23" s="16">
+        <f>B23/E23</f>
+        <v>78143.807308970107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="13">
+        <v>27598062</v>
+      </c>
+      <c r="C24" s="14">
+        <f>B24/1024</f>
+        <v>26951.232421875</v>
+      </c>
+      <c r="D24" s="13">
+        <v>345.28</v>
+      </c>
+      <c r="E24" s="13">
+        <v>441</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="0"/>
+        <v>0.78294784580498855</v>
+      </c>
+      <c r="G24" s="16">
+        <f>B24/E24</f>
+        <v>62580.639455782315</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="13">
+        <v>78717240</v>
+      </c>
+      <c r="C25" s="14">
+        <f>B25/1024</f>
+        <v>76872.3046875</v>
+      </c>
+      <c r="D25" s="13">
+        <v>287.86</v>
+      </c>
+      <c r="E25" s="13">
+        <v>118</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="0"/>
+        <v>2.4394915254237288</v>
+      </c>
+      <c r="G25" s="16">
+        <f>B25/E25</f>
+        <v>667095.25423728814</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="13">
+        <v>11093690</v>
+      </c>
+      <c r="C26" s="14">
+        <f>B26/1024</f>
+        <v>10833.681640625</v>
+      </c>
+      <c r="D26" s="13">
+        <v>247.6</v>
+      </c>
+      <c r="E26" s="13">
+        <v>213</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1624413145539907</v>
+      </c>
+      <c r="G26" s="16">
+        <f>B26/E26</f>
+        <v>52083.051643192492</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="13">
+        <v>8415945</v>
+      </c>
+      <c r="C27" s="14">
+        <f>B27/1024</f>
+        <v>8218.6962890625</v>
+      </c>
+      <c r="D27" s="13">
+        <v>203.88</v>
+      </c>
+      <c r="E27" s="13">
+        <v>375</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54367999999999994</v>
+      </c>
+      <c r="G27" s="16">
+        <f>B27/E27</f>
+        <v>22442.52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="13">
+        <v>21020974</v>
+      </c>
+      <c r="C28" s="14">
+        <f>B28/1024</f>
+        <v>20528.294921875</v>
+      </c>
+      <c r="D28" s="13">
+        <v>193.16</v>
+      </c>
+      <c r="E28" s="13">
+        <v>402</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="0"/>
+        <v>0.48049751243781091</v>
+      </c>
+      <c r="G28" s="16">
+        <f>B28/E28</f>
+        <v>52290.980099502485</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="13">
+        <v>99114303</v>
+      </c>
+      <c r="C29" s="14">
+        <f>B29/1024</f>
+        <v>96791.3115234375</v>
+      </c>
+      <c r="D29" s="13">
+        <v>353.27</v>
+      </c>
+      <c r="E29" s="13">
+        <v>225</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5700888888888889</v>
+      </c>
+      <c r="G29" s="16">
+        <f>B29/E29</f>
+        <v>440508.01333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <v>12595779</v>
+      </c>
+      <c r="C30" s="14">
+        <f>B30/1024</f>
+        <v>12300.5654296875</v>
+      </c>
+      <c r="D30" s="13">
+        <v>300.62</v>
+      </c>
+      <c r="E30" s="13">
+        <v>329</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="0"/>
+        <v>0.91373860182370825</v>
+      </c>
+      <c r="G30" s="16">
+        <f>B30/E30</f>
+        <v>38285.042553191488</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="13">
+        <v>22435417</v>
+      </c>
+      <c r="C31" s="14">
+        <f>B31/1024</f>
+        <v>21909.5869140625</v>
+      </c>
+      <c r="D31" s="13">
+        <v>199.45</v>
+      </c>
+      <c r="E31" s="13">
+        <v>356</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56025280898876406</v>
+      </c>
+      <c r="G31" s="16">
+        <f>B31/E31</f>
+        <v>63020.834269662919</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="13">
+        <v>14713204</v>
+      </c>
+      <c r="C32" s="14">
+        <f>B32/1024</f>
+        <v>14368.36328125</v>
+      </c>
+      <c r="D32" s="13">
+        <v>142.18</v>
+      </c>
+      <c r="E32" s="13">
+        <v>305</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="0"/>
+        <v>0.46616393442622955</v>
+      </c>
+      <c r="G32" s="16">
+        <f>B32/E32</f>
+        <v>48240.013114754096</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="13">
+        <v>10925822</v>
+      </c>
+      <c r="C33" s="14">
+        <f>B33/1024</f>
+        <v>10669.748046875</v>
+      </c>
+      <c r="D33" s="13">
+        <v>128.78</v>
+      </c>
+      <c r="E33" s="13">
+        <v>31</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="0"/>
+        <v>4.1541935483870969</v>
+      </c>
+      <c r="G33" s="16">
+        <f>B33/E33</f>
+        <v>352445.87096774194</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="13">
+        <v>9603899</v>
+      </c>
+      <c r="C34" s="14">
+        <f>B34/1024</f>
+        <v>9378.8076171875</v>
+      </c>
+      <c r="D34" s="13">
+        <v>182.13</v>
+      </c>
+      <c r="E34" s="13">
+        <v>235</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="0"/>
+        <v>0.77502127659574471</v>
+      </c>
+      <c r="G34" s="16">
+        <f>B34/E34</f>
+        <v>40867.655319148937</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="13">
+        <v>29274109</v>
+      </c>
+      <c r="C35" s="14">
+        <f>B35/1024</f>
+        <v>28587.9970703125</v>
+      </c>
+      <c r="D35" s="13">
+        <v>375.53</v>
+      </c>
+      <c r="E35" s="13">
+        <v>628</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="0"/>
+        <v>0.59797770700636943</v>
+      </c>
+      <c r="G35" s="16">
+        <f>B35/E35</f>
+        <v>46614.823248407643</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="13">
+        <v>12578567</v>
+      </c>
+      <c r="C36" s="14">
+        <f>B36/1024</f>
+        <v>12283.7568359375</v>
+      </c>
+      <c r="D36" s="13">
+        <v>186.84</v>
+      </c>
+      <c r="E36" s="13">
+        <v>207</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="0"/>
+        <v>0.90260869565217394</v>
+      </c>
+      <c r="G36" s="16">
+        <f>B36/E36</f>
+        <v>60766.024154589373</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="13">
+        <v>134291663</v>
+      </c>
+      <c r="C37" s="14">
+        <f>B37/1024</f>
+        <v>131144.2021484375</v>
+      </c>
+      <c r="D37" s="13">
+        <v>460.47</v>
+      </c>
+      <c r="E37" s="13">
+        <v>280</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6445357142857144</v>
+      </c>
+      <c r="G37" s="16">
+        <f>B37/E37</f>
+        <v>479613.08214285714</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <v>98727081</v>
+      </c>
+      <c r="C38" s="14">
+        <f>B38/1024</f>
+        <v>96413.1650390625</v>
+      </c>
+      <c r="D38" s="13">
+        <v>349.69</v>
+      </c>
+      <c r="E38" s="13">
+        <v>143</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="0"/>
+        <v>2.4453846153846155</v>
+      </c>
+      <c r="G38" s="16">
+        <f>B38/E38</f>
+        <v>690399.16783216782</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="13">
+        <v>27994757</v>
+      </c>
+      <c r="C39" s="14">
+        <f>B39/1024</f>
+        <v>27338.6298828125</v>
+      </c>
+      <c r="D39" s="13">
+        <v>250.41</v>
+      </c>
+      <c r="E39" s="13">
+        <v>480</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52168749999999997</v>
+      </c>
+      <c r="G39" s="16">
+        <f>B39/E39</f>
+        <v>58322.410416666666</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="13">
+        <v>35149649</v>
+      </c>
+      <c r="C40" s="14">
+        <f>B40/1024</f>
+        <v>34325.8291015625</v>
+      </c>
+      <c r="D40" s="13">
+        <v>120.53</v>
+      </c>
+      <c r="E40" s="13">
+        <v>56</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" si="0"/>
+        <v>2.1523214285714287</v>
+      </c>
+      <c r="G40" s="16">
+        <f>B40/E40</f>
+        <v>627672.30357142852</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="13">
+        <v>45712601</v>
+      </c>
+      <c r="C41" s="14">
+        <f>B41/1024</f>
+        <v>44641.2119140625</v>
+      </c>
+      <c r="D41" s="13">
+        <v>412.76</v>
+      </c>
+      <c r="E41" s="13">
+        <v>577</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="0"/>
+        <v>0.7153552859618717</v>
+      </c>
+      <c r="G41" s="16">
+        <f>B41/E41</f>
+        <v>79224.611785095316</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="13">
+        <v>81687470</v>
+      </c>
+      <c r="C42" s="14">
+        <f>B42/1024</f>
+        <v>79772.919921875</v>
+      </c>
+      <c r="D42" s="13">
+        <v>420.84</v>
+      </c>
+      <c r="E42" s="13">
+        <v>178</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3642696629213482</v>
+      </c>
+      <c r="G42" s="16">
+        <f>B42/E42</f>
+        <v>458918.37078651687</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="13">
+        <v>33278259</v>
+      </c>
+      <c r="C43" s="14">
+        <f>B43/1024</f>
+        <v>32498.2998046875</v>
+      </c>
+      <c r="D43" s="13">
+        <v>244.24</v>
+      </c>
+      <c r="E43" s="13">
+        <v>53</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="0"/>
+        <v>4.6083018867924528</v>
+      </c>
+      <c r="G43" s="16">
+        <f>B43/E43</f>
+        <v>627891.67924528301</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="13">
+        <v>33182781</v>
+      </c>
+      <c r="C44" s="14">
+        <f>B44/1024</f>
+        <v>32405.0595703125</v>
+      </c>
+      <c r="D44" s="13">
+        <v>122.65</v>
+      </c>
+      <c r="E44" s="13">
+        <v>52</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3586538461538464</v>
+      </c>
+      <c r="G44" s="16">
+        <f>B44/E44</f>
+        <v>638130.40384615387</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="13">
+        <v>24124567</v>
+      </c>
+      <c r="C45" s="14">
+        <f>B45/1024</f>
+        <v>23559.1474609375</v>
+      </c>
+      <c r="D45" s="13">
+        <v>262.87</v>
+      </c>
+      <c r="E45" s="13">
+        <v>77</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="0"/>
+        <v>3.413896103896104</v>
+      </c>
+      <c r="G45" s="16">
+        <f>B45/E45</f>
+        <v>313306.06493506493</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="13">
+        <v>117718737</v>
+      </c>
+      <c r="C46" s="14">
+        <f>B46/1024</f>
+        <v>114959.7041015625</v>
+      </c>
+      <c r="D46" s="13">
+        <v>426.97</v>
+      </c>
+      <c r="E46" s="13">
+        <v>180</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3720555555555558</v>
+      </c>
+      <c r="G46" s="16">
+        <f>B46/E46</f>
+        <v>653992.98333333328</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="13">
+        <v>35647012</v>
+      </c>
+      <c r="C47" s="14">
+        <f>B47/1024</f>
+        <v>34811.53515625</v>
+      </c>
+      <c r="D47" s="13">
+        <v>123.6</v>
+      </c>
+      <c r="E47" s="13">
+        <v>52</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3769230769230769</v>
+      </c>
+      <c r="G47" s="16">
+        <f>B47/E47</f>
+        <v>685519.4615384615</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="13">
+        <v>68986179</v>
+      </c>
+      <c r="C48" s="14">
+        <f>B48/1024</f>
+        <v>67369.3154296875</v>
+      </c>
+      <c r="D48" s="13">
+        <v>172.92</v>
+      </c>
+      <c r="E48" s="13">
+        <v>107</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="0"/>
+        <v>1.61607476635514</v>
+      </c>
+      <c r="G48" s="16">
+        <f>B48/E48</f>
+        <v>644730.64485981304</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="13">
+        <v>102887756</v>
+      </c>
+      <c r="C49" s="14">
+        <f>B49/1024</f>
+        <v>100476.32421875</v>
+      </c>
+      <c r="D49" s="13">
+        <v>334.92</v>
+      </c>
+      <c r="E49" s="13">
+        <v>129</v>
+      </c>
+      <c r="F49" s="15">
+        <f t="shared" si="0"/>
+        <v>2.596279069767442</v>
+      </c>
+      <c r="G49" s="16">
+        <f>B49/E49</f>
+        <v>797579.50387596898</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="13">
+        <v>8666482</v>
+      </c>
+      <c r="C50" s="14">
+        <f>B50/1024</f>
+        <v>8463.361328125</v>
+      </c>
+      <c r="D50" s="13">
+        <v>171.27</v>
+      </c>
+      <c r="E50" s="13">
+        <v>117</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="0"/>
+        <v>1.463846153846154</v>
+      </c>
+      <c r="G50" s="16">
+        <f>B50/E50</f>
+        <v>74072.495726495719</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="13">
+        <v>34913259</v>
+      </c>
+      <c r="C51" s="14">
+        <f>B51/1024</f>
+        <v>34094.9794921875</v>
+      </c>
+      <c r="D51" s="13">
+        <v>135.56</v>
+      </c>
+      <c r="E51" s="13">
+        <v>87</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5581609195402299</v>
+      </c>
+      <c r="G51" s="16">
+        <f>B51/E51</f>
+        <v>401301.8275862069</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="13">
+        <v>30736755</v>
+      </c>
+      <c r="C52" s="14">
+        <f>B52/1024</f>
+        <v>30016.3623046875</v>
+      </c>
+      <c r="D52" s="13">
+        <v>135.81</v>
+      </c>
+      <c r="E52" s="13">
+        <v>49</v>
+      </c>
+      <c r="F52" s="15">
+        <f t="shared" si="0"/>
+        <v>2.7716326530612245</v>
+      </c>
+      <c r="G52" s="16">
+        <f>B52/E52</f>
+        <v>627280.71428571432</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="13">
+        <v>23153645</v>
+      </c>
+      <c r="C53" s="14">
+        <f>B53/1024</f>
+        <v>22610.9814453125</v>
+      </c>
+      <c r="D53" s="13">
+        <v>206.14</v>
+      </c>
+      <c r="E53" s="13">
+        <v>340</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" si="0"/>
+        <v>0.60629411764705876</v>
+      </c>
+      <c r="G53" s="16">
+        <f>B53/E53</f>
+        <v>68098.955882352937</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="13">
+        <v>6462422</v>
+      </c>
+      <c r="C54" s="14">
+        <f>B54/1024</f>
+        <v>6310.958984375</v>
+      </c>
+      <c r="D54" s="13">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="E54" s="13">
+        <v>111</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="0"/>
+        <v>1.3045045045045045</v>
+      </c>
+      <c r="G54" s="16">
+        <f>B54/E54</f>
+        <v>58220.018018018018</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="13">
+        <v>137961720</v>
+      </c>
+      <c r="C55" s="14">
+        <f>B55/1024</f>
+        <v>134728.2421875</v>
+      </c>
+      <c r="D55" s="13">
+        <v>485.04</v>
+      </c>
+      <c r="E55" s="13">
+        <v>262</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8512977099236643</v>
+      </c>
+      <c r="G55" s="16">
+        <f>B55/E55</f>
+        <v>526571.45038167934</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="13">
+        <v>34040175</v>
+      </c>
+      <c r="C56" s="14">
+        <f>B56/1024</f>
+        <v>33242.3583984375</v>
+      </c>
+      <c r="D56" s="13">
+        <v>190.01</v>
+      </c>
+      <c r="E56" s="13">
+        <v>63</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="0"/>
+        <v>3.0160317460317461</v>
+      </c>
+      <c r="G56" s="16">
+        <f>B56/E56</f>
+        <v>540320.23809523811</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="13">
+        <v>45608803</v>
+      </c>
+      <c r="C57" s="14">
+        <f>B57/1024</f>
+        <v>44539.8466796875</v>
+      </c>
+      <c r="D57" s="13">
+        <v>314.17</v>
+      </c>
+      <c r="E57" s="13">
+        <v>117</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="0"/>
+        <v>2.6852136752136753</v>
+      </c>
+      <c r="G57" s="16">
+        <f>B57/E57</f>
+        <v>389818.82905982906</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="13">
+        <v>21975562</v>
+      </c>
+      <c r="C58" s="14">
+        <f>B58/1024</f>
+        <v>21460.509765625</v>
+      </c>
+      <c r="D58" s="13">
+        <v>197.63</v>
+      </c>
+      <c r="E58" s="13">
+        <v>894</v>
+      </c>
+      <c r="F58" s="15">
+        <f t="shared" si="0"/>
+        <v>0.22106263982102908</v>
+      </c>
+      <c r="G58" s="16">
+        <f>B58/E58</f>
+        <v>24581.165548098434</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="13">
+        <v>43764146</v>
+      </c>
+      <c r="C59" s="14">
+        <f>B59/1024</f>
+        <v>42738.423828125</v>
+      </c>
+      <c r="D59" s="13">
+        <v>235.68</v>
+      </c>
+      <c r="E59" s="13">
+        <v>88</v>
+      </c>
+      <c r="F59" s="15">
+        <f t="shared" si="0"/>
+        <v>2.6781818181818182</v>
+      </c>
+      <c r="G59" s="16">
+        <f>B59/E59</f>
+        <v>497319.84090909088</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="13">
+        <v>8498889</v>
+      </c>
+      <c r="C60" s="14">
+        <f>B60/1024</f>
+        <v>8299.6962890625</v>
+      </c>
+      <c r="D60" s="13">
+        <v>123.48</v>
+      </c>
+      <c r="E60" s="13">
+        <v>139</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="0"/>
+        <v>0.88834532374100728</v>
+      </c>
+      <c r="G60" s="16">
+        <f>B60/E60</f>
+        <v>61143.08633093525</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="13">
+        <v>89822744</v>
+      </c>
+      <c r="C61" s="14">
+        <f>B61/1024</f>
+        <v>87717.5234375</v>
+      </c>
+      <c r="D61" s="13">
+        <v>306.62</v>
+      </c>
+      <c r="E61" s="13">
+        <v>199</v>
+      </c>
+      <c r="F61" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5408040201005024</v>
+      </c>
+      <c r="G61" s="16">
+        <f>B61/E61</f>
+        <v>451370.57286432158</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="13">
+        <v>45849337</v>
+      </c>
+      <c r="C62" s="14">
+        <f>B62/1024</f>
+        <v>44774.7431640625</v>
+      </c>
+      <c r="D62" s="13">
+        <v>153.16</v>
+      </c>
+      <c r="E62" s="13">
+        <v>65</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3563076923076922</v>
+      </c>
+      <c r="G62" s="16">
+        <f>B62/E62</f>
+        <v>705374.41538461542</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="13">
+        <v>111235816</v>
+      </c>
+      <c r="C63" s="14">
+        <f>B63/1024</f>
+        <v>108628.7265625</v>
+      </c>
+      <c r="D63" s="13">
+        <v>390.21</v>
+      </c>
+      <c r="E63" s="13">
+        <v>108</v>
+      </c>
+      <c r="F63" s="15">
+        <f t="shared" si="0"/>
+        <v>3.6130555555555555</v>
+      </c>
+      <c r="G63" s="16">
+        <f>B63/E63</f>
+        <v>1029961.2592592592</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="13">
+        <v>11384057</v>
+      </c>
+      <c r="C64" s="14">
+        <f>B64/1024</f>
+        <v>11117.2431640625</v>
+      </c>
+      <c r="D64" s="13">
+        <v>122.16</v>
+      </c>
+      <c r="E64" s="13">
+        <v>179</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="0"/>
+        <v>0.68245810055865919</v>
+      </c>
+      <c r="G64" s="16">
+        <f>B64/E64</f>
+        <v>63598.083798882682</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="13">
+        <v>103624684</v>
+      </c>
+      <c r="C65" s="14">
+        <f>B65/1024</f>
+        <v>101195.98046875</v>
+      </c>
+      <c r="D65" s="13">
+        <v>243.23</v>
+      </c>
+      <c r="E65" s="13">
+        <v>108</v>
+      </c>
+      <c r="F65" s="15">
+        <f t="shared" si="0"/>
+        <v>2.2521296296296294</v>
+      </c>
+      <c r="G65" s="16">
+        <f>B65/E65</f>
+        <v>959487.81481481483</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="13">
+        <v>60394405</v>
+      </c>
+      <c r="C66" s="14">
+        <f>B66/1024</f>
+        <v>58978.9111328125</v>
+      </c>
+      <c r="D66" s="13">
+        <v>210.05</v>
+      </c>
+      <c r="E66" s="13">
+        <v>75</v>
+      </c>
+      <c r="F66" s="15">
+        <f t="shared" si="0"/>
+        <v>2.8006666666666669</v>
+      </c>
+      <c r="G66" s="16">
+        <f>B66/E66</f>
+        <v>805258.73333333328</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="13">
+        <v>117337794</v>
+      </c>
+      <c r="C67" s="14">
+        <f>B67/1024</f>
+        <v>114587.689453125</v>
+      </c>
+      <c r="D67" s="13">
+        <v>414.13</v>
+      </c>
+      <c r="E67" s="13">
+        <v>251</v>
+      </c>
+      <c r="F67" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6499203187250995</v>
+      </c>
+      <c r="G67" s="16">
+        <f>B67/E67</f>
+        <v>467481.25099601591</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="13">
+        <v>136879796</v>
+      </c>
+      <c r="C68" s="14">
+        <f>B68/1024</f>
+        <v>133671.67578125</v>
+      </c>
+      <c r="D68" s="13">
+        <v>354.57</v>
+      </c>
+      <c r="E68" s="13">
+        <v>193</v>
+      </c>
+      <c r="F68" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8371502590673574</v>
+      </c>
+      <c r="G68" s="16">
+        <f>B68/E68</f>
+        <v>709221.74093264248</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="13">
+        <v>47209514</v>
+      </c>
+      <c r="C69" s="14">
+        <f>B69/1024</f>
+        <v>46103.041015625</v>
+      </c>
+      <c r="D69" s="13">
+        <v>120</v>
+      </c>
+      <c r="E69" s="13">
+        <v>50</v>
+      </c>
+      <c r="F69" s="15">
+        <f t="shared" ref="F69:F130" si="1">D69/E69</f>
+        <v>2.4</v>
+      </c>
+      <c r="G69" s="16">
+        <f>B69/E69</f>
+        <v>944190.28</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="13">
+        <v>46052806</v>
+      </c>
+      <c r="C70" s="14">
+        <f>B70/1024</f>
+        <v>44973.443359375</v>
+      </c>
+      <c r="D70" s="13">
+        <v>167.49</v>
+      </c>
+      <c r="E70" s="13">
+        <v>60</v>
+      </c>
+      <c r="F70" s="15">
         <f t="shared" si="1"/>
-        <v>77409.7265625</v>
-      </c>
-      <c r="D6" s="11">
-        <v>194.97</v>
-      </c>
-      <c r="E6" s="11">
+        <v>2.7915000000000001</v>
+      </c>
+      <c r="G70" s="16">
+        <f>B70/E70</f>
+        <v>767546.76666666672</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="13">
+        <v>14117962</v>
+      </c>
+      <c r="C71" s="14">
+        <f>B71/1024</f>
+        <v>13787.072265625</v>
+      </c>
+      <c r="D71" s="13">
+        <v>126.15</v>
+      </c>
+      <c r="E71" s="13">
+        <v>187</v>
+      </c>
+      <c r="F71" s="15">
+        <f t="shared" si="1"/>
+        <v>0.6745989304812835</v>
+      </c>
+      <c r="G71" s="16">
+        <f>B71/E71</f>
+        <v>75497.122994652411</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="13">
+        <v>27882961</v>
+      </c>
+      <c r="C72" s="14">
+        <f>B72/1024</f>
+        <v>27229.4541015625</v>
+      </c>
+      <c r="D72" s="13">
+        <v>243.98</v>
+      </c>
+      <c r="E72" s="13">
+        <v>377</v>
+      </c>
+      <c r="F72" s="15">
+        <f t="shared" si="1"/>
+        <v>0.64716180371352783</v>
+      </c>
+      <c r="G72" s="16">
+        <f>B72/E72</f>
+        <v>73960.108753315653</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="13">
+        <v>12397768</v>
+      </c>
+      <c r="C73" s="14">
+        <f>B73/1024</f>
+        <v>12107.1953125</v>
+      </c>
+      <c r="D73" s="13">
+        <v>156.72</v>
+      </c>
+      <c r="E73" s="13">
+        <v>46</v>
+      </c>
+      <c r="F73" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4069565217391302</v>
+      </c>
+      <c r="G73" s="16">
+        <f>B73/E73</f>
+        <v>269516.69565217389</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="13">
+        <v>35489411</v>
+      </c>
+      <c r="C74" s="14">
+        <f>B74/1024</f>
+        <v>34657.6279296875</v>
+      </c>
+      <c r="D74" s="13">
+        <v>129.61000000000001</v>
+      </c>
+      <c r="E74" s="13">
+        <v>32</v>
+      </c>
+      <c r="F74" s="15">
+        <f t="shared" si="1"/>
+        <v>4.0503125000000004</v>
+      </c>
+      <c r="G74" s="16">
+        <f>B74/E74</f>
+        <v>1109044.09375</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="13">
+        <v>52342500</v>
+      </c>
+      <c r="C75" s="14">
+        <f>B75/1024</f>
+        <v>51115.72265625</v>
+      </c>
+      <c r="D75" s="13">
+        <v>180.67</v>
+      </c>
+      <c r="E75" s="13">
+        <v>41</v>
+      </c>
+      <c r="F75" s="15">
+        <f t="shared" si="1"/>
+        <v>4.4065853658536582</v>
+      </c>
+      <c r="G75" s="16">
+        <f>B75/E75</f>
+        <v>1276646.3414634147</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="13">
+        <v>82972304</v>
+      </c>
+      <c r="C76" s="14">
+        <f>B76/1024</f>
+        <v>81027.640625</v>
+      </c>
+      <c r="D76" s="13">
+        <v>271.35000000000002</v>
+      </c>
+      <c r="E76" s="13">
+        <v>158</v>
+      </c>
+      <c r="F76" s="15">
+        <f t="shared" si="1"/>
+        <v>1.7174050632911393</v>
+      </c>
+      <c r="G76" s="16">
+        <f>B76/E76</f>
+        <v>525141.16455696197</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="13">
+        <v>16188632</v>
+      </c>
+      <c r="C77" s="14">
+        <f>B77/1024</f>
+        <v>15809.2109375</v>
+      </c>
+      <c r="D77" s="13">
+        <v>215.17</v>
+      </c>
+      <c r="E77" s="13">
+        <v>908</v>
+      </c>
+      <c r="F77" s="15">
+        <f t="shared" si="1"/>
+        <v>0.2369713656387665</v>
+      </c>
+      <c r="G77" s="16">
+        <f>B77/E77</f>
+        <v>17828.889867841408</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="13">
+        <v>9966528</v>
+      </c>
+      <c r="C78" s="14">
+        <f>B78/1024</f>
+        <v>9732.9375</v>
+      </c>
+      <c r="D78" s="13">
+        <v>147.15</v>
+      </c>
+      <c r="E78" s="13">
+        <v>30</v>
+      </c>
+      <c r="F78" s="15">
+        <f t="shared" si="1"/>
+        <v>4.9050000000000002</v>
+      </c>
+      <c r="G78" s="16">
+        <f>B78/E78</f>
+        <v>332217.59999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="13">
+        <v>132504522</v>
+      </c>
+      <c r="C79" s="14">
+        <f>B79/1024</f>
+        <v>129398.947265625</v>
+      </c>
+      <c r="D79" s="13">
+        <v>454</v>
+      </c>
+      <c r="E79" s="13">
+        <v>370</v>
+      </c>
+      <c r="F79" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2270270270270269</v>
+      </c>
+      <c r="G79" s="16">
+        <f>B79/E79</f>
+        <v>358120.32972972974</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="13">
+        <v>119686483</v>
+      </c>
+      <c r="C80" s="14">
+        <f>B80/1024</f>
+        <v>116881.3310546875</v>
+      </c>
+      <c r="D80" s="13">
+        <v>410.02</v>
+      </c>
+      <c r="E80" s="13">
+        <v>300</v>
+      </c>
+      <c r="F80" s="15">
+        <f t="shared" si="1"/>
+        <v>1.3667333333333334</v>
+      </c>
+      <c r="G80" s="16">
+        <f>B80/E80</f>
+        <v>398954.94333333336</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="13">
+        <v>49111124</v>
+      </c>
+      <c r="C81" s="14">
+        <f>B81/1024</f>
+        <v>47960.08203125</v>
+      </c>
+      <c r="D81" s="13">
+        <v>178.19</v>
+      </c>
+      <c r="E81" s="13">
+        <v>64</v>
+      </c>
+      <c r="F81" s="15">
+        <f t="shared" si="1"/>
+        <v>2.78421875</v>
+      </c>
+      <c r="G81" s="16">
+        <f>B81/E81</f>
+        <v>767361.3125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="13">
+        <v>37076433</v>
+      </c>
+      <c r="C82" s="14">
+        <f>B82/1024</f>
+        <v>36207.4541015625</v>
+      </c>
+      <c r="D82" s="13">
+        <v>380.6</v>
+      </c>
+      <c r="E82" s="13">
+        <v>121</v>
+      </c>
+      <c r="F82" s="15">
+        <f t="shared" si="1"/>
+        <v>3.1454545454545455</v>
+      </c>
+      <c r="G82" s="16">
+        <f>B82/E82</f>
+        <v>306416.80165289255</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="13">
+        <v>17811593</v>
+      </c>
+      <c r="C83" s="14">
+        <f>B83/1024</f>
+        <v>17394.1337890625</v>
+      </c>
+      <c r="D83" s="13">
+        <v>229.24</v>
+      </c>
+      <c r="E83" s="13">
+        <v>1058</v>
+      </c>
+      <c r="F83" s="15">
+        <f t="shared" si="1"/>
+        <v>0.21667296786389414</v>
+      </c>
+      <c r="G83" s="16">
+        <f>B83/E83</f>
+        <v>16835.15406427221</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="13">
+        <v>65826210</v>
+      </c>
+      <c r="C84" s="14">
+        <f>B84/1024</f>
+        <v>64283.408203125</v>
+      </c>
+      <c r="D84" s="13">
+        <v>166.44</v>
+      </c>
+      <c r="E84" s="13">
+        <v>63</v>
+      </c>
+      <c r="F84" s="15">
+        <f t="shared" si="1"/>
+        <v>2.6419047619047618</v>
+      </c>
+      <c r="G84" s="16">
+        <f>B84/E84</f>
+        <v>1044860.4761904762</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="13">
+        <v>25354902</v>
+      </c>
+      <c r="C85" s="14">
+        <f>B85/1024</f>
+        <v>24760.646484375</v>
+      </c>
+      <c r="D85" s="13">
+        <v>271.37</v>
+      </c>
+      <c r="E85" s="13">
+        <v>73</v>
+      </c>
+      <c r="F85" s="15">
+        <f t="shared" si="1"/>
+        <v>3.7173972602739727</v>
+      </c>
+      <c r="G85" s="16">
+        <f>B85/E85</f>
+        <v>347327.42465753423</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="13">
+        <v>11700264</v>
+      </c>
+      <c r="C86" s="14">
+        <f>B86/1024</f>
+        <v>11426.0390625</v>
+      </c>
+      <c r="D86" s="13">
+        <v>126.78</v>
+      </c>
+      <c r="E86" s="13">
+        <v>30</v>
+      </c>
+      <c r="F86" s="15">
+        <f t="shared" si="1"/>
+        <v>4.226</v>
+      </c>
+      <c r="G86" s="16">
+        <f>B86/E86</f>
+        <v>390008.8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="13">
+        <v>12763123</v>
+      </c>
+      <c r="C87" s="14">
+        <f>B87/1024</f>
+        <v>12463.9873046875</v>
+      </c>
+      <c r="D87" s="13">
+        <v>120.08</v>
+      </c>
+      <c r="E87" s="13">
+        <v>147</v>
+      </c>
+      <c r="F87" s="15">
+        <f t="shared" si="1"/>
+        <v>0.81687074829931972</v>
+      </c>
+      <c r="G87" s="16">
+        <f>B87/E87</f>
+        <v>86823.965986394556</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="13">
+        <v>82716993</v>
+      </c>
+      <c r="C88" s="14">
+        <f>B88/1024</f>
+        <v>80778.3134765625</v>
+      </c>
+      <c r="D88" s="13">
+        <v>298.56</v>
+      </c>
+      <c r="E88" s="13">
+        <v>107</v>
+      </c>
+      <c r="F88" s="15">
+        <f t="shared" si="1"/>
+        <v>2.7902803738317759</v>
+      </c>
+      <c r="G88" s="16">
+        <f>B88/E88</f>
+        <v>773056.00934579445</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="13">
+        <v>18891669</v>
+      </c>
+      <c r="C89" s="14">
+        <f>B89/1024</f>
+        <v>18448.8955078125</v>
+      </c>
+      <c r="D89" s="13">
+        <v>166.23</v>
+      </c>
+      <c r="E89" s="13">
+        <v>412</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="1"/>
+        <v>0.40347087378640772</v>
+      </c>
+      <c r="G89" s="16">
+        <f>B89/E89</f>
+        <v>45853.565533980582</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="13">
+        <v>52994332</v>
+      </c>
+      <c r="C90" s="14">
+        <f>B90/1024</f>
+        <v>51752.27734375</v>
+      </c>
+      <c r="D90" s="13">
+        <v>476.72</v>
+      </c>
+      <c r="E90" s="13">
+        <v>647</v>
+      </c>
+      <c r="F90" s="15">
+        <f t="shared" si="1"/>
+        <v>0.73681607418856265</v>
+      </c>
+      <c r="G90" s="16">
+        <f>B90/E90</f>
+        <v>81907.777434312215</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="13">
+        <v>19433661</v>
+      </c>
+      <c r="C91" s="14">
+        <f>B91/1024</f>
+        <v>18978.1845703125</v>
+      </c>
+      <c r="D91" s="13">
+        <v>182.2</v>
+      </c>
+      <c r="E91" s="13">
+        <v>473</v>
+      </c>
+      <c r="F91" s="15">
+        <f t="shared" si="1"/>
+        <v>0.38520084566596191</v>
+      </c>
+      <c r="G91" s="16">
+        <f>B91/E91</f>
+        <v>41085.964059196616</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="13">
+        <v>70835162</v>
+      </c>
+      <c r="C92" s="14">
+        <f>B92/1024</f>
+        <v>69174.962890625</v>
+      </c>
+      <c r="D92" s="13">
+        <v>177.42</v>
+      </c>
+      <c r="E92" s="13">
+        <v>102</v>
+      </c>
+      <c r="F92" s="15">
+        <f t="shared" si="1"/>
+        <v>1.7394117647058822</v>
+      </c>
+      <c r="G92" s="16">
+        <f>B92/E92</f>
+        <v>694462.37254901964</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="13">
+        <v>38749983</v>
+      </c>
+      <c r="C93" s="14">
+        <f>B93/1024</f>
+        <v>37841.7802734375</v>
+      </c>
+      <c r="D93" s="13">
+        <v>177.98</v>
+      </c>
+      <c r="E93" s="13">
+        <v>32</v>
+      </c>
+      <c r="F93" s="15">
+        <f t="shared" si="1"/>
+        <v>5.5618749999999997</v>
+      </c>
+      <c r="G93" s="16">
+        <f>B93/E93</f>
+        <v>1210936.96875</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="13">
+        <v>60107612</v>
+      </c>
+      <c r="C94" s="14">
+        <f>B94/1024</f>
+        <v>58698.83984375</v>
+      </c>
+      <c r="D94" s="13">
+        <v>204.71</v>
+      </c>
+      <c r="E94" s="13">
+        <v>140</v>
+      </c>
+      <c r="F94" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4622142857142857</v>
+      </c>
+      <c r="G94" s="16">
+        <f>B94/E94</f>
+        <v>429340.08571428573</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="13">
+        <v>40542874</v>
+      </c>
+      <c r="C95" s="14">
+        <f>B95/1024</f>
+        <v>39592.650390625</v>
+      </c>
+      <c r="D95" s="13">
+        <v>156.36000000000001</v>
+      </c>
+      <c r="E95" s="13">
+        <v>32</v>
+      </c>
+      <c r="F95" s="15">
+        <f t="shared" si="1"/>
+        <v>4.8862500000000004</v>
+      </c>
+      <c r="G95" s="16">
+        <f>B95/E95</f>
+        <v>1266964.8125</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="13">
+        <v>13355012</v>
+      </c>
+      <c r="C96" s="14">
+        <f>B96/1024</f>
+        <v>13042.00390625</v>
+      </c>
+      <c r="D96" s="13">
+        <v>167.35</v>
+      </c>
+      <c r="E96" s="13">
+        <v>316</v>
+      </c>
+      <c r="F96" s="15">
+        <f t="shared" si="1"/>
+        <v>0.52958860759493664</v>
+      </c>
+      <c r="G96" s="16">
+        <f>B96/E96</f>
+        <v>42262.696202531646</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="13">
+        <v>11979003</v>
+      </c>
+      <c r="C97" s="14">
+        <f>B97/1024</f>
+        <v>11698.2451171875</v>
+      </c>
+      <c r="D97" s="13">
+        <v>175.38</v>
+      </c>
+      <c r="E97" s="13">
+        <v>58</v>
+      </c>
+      <c r="F97" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0237931034482757</v>
+      </c>
+      <c r="G97" s="16">
+        <f>B97/E97</f>
+        <v>206534.53448275861</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="13">
+        <v>112133102</v>
+      </c>
+      <c r="C98" s="14">
+        <f>B98/1024</f>
+        <v>109504.982421875</v>
+      </c>
+      <c r="D98" s="13">
+        <v>384.2</v>
+      </c>
+      <c r="E98" s="13">
+        <v>84</v>
+      </c>
+      <c r="F98" s="15">
+        <f t="shared" si="1"/>
+        <v>4.5738095238095235</v>
+      </c>
+      <c r="G98" s="16">
+        <f>B98/E98</f>
+        <v>1334917.8809523811</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="13">
+        <v>15741315</v>
+      </c>
+      <c r="C99" s="14">
+        <f>B99/1024</f>
+        <v>15372.3779296875</v>
+      </c>
+      <c r="D99" s="13">
+        <v>147.31</v>
+      </c>
+      <c r="E99" s="13">
+        <v>677</v>
+      </c>
+      <c r="F99" s="15">
+        <f t="shared" si="1"/>
+        <v>0.21759231905465287</v>
+      </c>
+      <c r="G99" s="16">
+        <f>B99/E99</f>
+        <v>23251.573116691285</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="13">
+        <v>14745834</v>
+      </c>
+      <c r="C100" s="14">
+        <f>B100/1024</f>
+        <v>14400.228515625</v>
+      </c>
+      <c r="D100" s="13">
+        <v>313.36</v>
+      </c>
+      <c r="E100" s="13">
+        <v>451</v>
+      </c>
+      <c r="F100" s="15">
+        <f t="shared" si="1"/>
+        <v>0.69481152993348116</v>
+      </c>
+      <c r="G100" s="16">
+        <f>B100/E100</f>
+        <v>32695.862527716185</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="13">
+        <v>22202665</v>
+      </c>
+      <c r="C101" s="14">
+        <f>B101/1024</f>
+        <v>21682.2900390625</v>
+      </c>
+      <c r="D101" s="13">
+        <v>157.5</v>
+      </c>
+      <c r="E101" s="13">
+        <v>21</v>
+      </c>
+      <c r="F101" s="15">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="G101" s="16">
+        <f>B101/E101</f>
+        <v>1057269.7619047619</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="13">
+        <v>12720315</v>
+      </c>
+      <c r="C102" s="14">
+        <f>B102/1024</f>
+        <v>12422.1826171875</v>
+      </c>
+      <c r="D102" s="13">
+        <v>221.73</v>
+      </c>
+      <c r="E102" s="13">
+        <v>356</v>
+      </c>
+      <c r="F102" s="15">
+        <f t="shared" si="1"/>
+        <v>0.62283707865168536</v>
+      </c>
+      <c r="G102" s="16">
+        <f>B102/E102</f>
+        <v>35731.221910112363</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="13">
+        <v>42137658</v>
+      </c>
+      <c r="C103" s="14">
+        <f>B103/1024</f>
+        <v>41150.056640625</v>
+      </c>
+      <c r="D103" s="13">
+        <v>181.67</v>
+      </c>
+      <c r="E103" s="13">
+        <v>94</v>
+      </c>
+      <c r="F103" s="15">
+        <f t="shared" si="1"/>
+        <v>1.932659574468085</v>
+      </c>
+      <c r="G103" s="16">
+        <f>B103/E103</f>
+        <v>448272.95744680852</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="13">
+        <v>39648073</v>
+      </c>
+      <c r="C104" s="14">
+        <f>B104/1024</f>
+        <v>38718.8212890625</v>
+      </c>
+      <c r="D104" s="13">
+        <v>440.44</v>
+      </c>
+      <c r="E104" s="13">
+        <v>232</v>
+      </c>
+      <c r="F104" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8984482758620689</v>
+      </c>
+      <c r="G104" s="16">
+        <f>B104/E104</f>
+        <v>170896.86637931035</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="13">
+        <v>27877359</v>
+      </c>
+      <c r="C105" s="14">
+        <f>B105/1024</f>
+        <v>27223.9833984375</v>
+      </c>
+      <c r="D105" s="13">
+        <v>347.03</v>
+      </c>
+      <c r="E105" s="13">
+        <v>2116</v>
+      </c>
+      <c r="F105" s="15">
+        <f t="shared" si="1"/>
+        <v>0.16400283553875236</v>
+      </c>
+      <c r="G105" s="16">
+        <f>B105/E105</f>
+        <v>13174.555293005671</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="13">
+        <v>21406952</v>
+      </c>
+      <c r="C106" s="14">
+        <f>B106/1024</f>
+        <v>20905.2265625</v>
+      </c>
+      <c r="D106" s="13">
+        <v>212.1</v>
+      </c>
+      <c r="E106" s="13">
+        <v>993</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="1"/>
+        <v>0.21359516616314198</v>
+      </c>
+      <c r="G106" s="16">
+        <f>B106/E106</f>
+        <v>21557.856998992949</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="13">
+        <v>14853252</v>
+      </c>
+      <c r="C107" s="14">
+        <f>B107/1024</f>
+        <v>14505.12890625</v>
+      </c>
+      <c r="D107" s="13">
+        <v>173.78</v>
+      </c>
+      <c r="E107" s="13">
+        <v>40</v>
+      </c>
+      <c r="F107" s="15">
+        <f t="shared" si="1"/>
+        <v>4.3445</v>
+      </c>
+      <c r="G107" s="16">
+        <f>B107/E107</f>
+        <v>371331.3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="13">
+        <v>66928253</v>
+      </c>
+      <c r="C108" s="14">
+        <f>B108/1024</f>
+        <v>65359.6220703125</v>
+      </c>
+      <c r="D108" s="13">
+        <v>237.35</v>
+      </c>
+      <c r="E108" s="13">
+        <v>104</v>
+      </c>
+      <c r="F108" s="15">
+        <f t="shared" si="1"/>
+        <v>2.2822115384615382</v>
+      </c>
+      <c r="G108" s="16">
+        <f>B108/E108</f>
+        <v>643540.89423076925</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="13">
+        <v>105514441</v>
+      </c>
+      <c r="C109" s="14">
+        <f>B109/1024</f>
+        <v>103041.4462890625</v>
+      </c>
+      <c r="D109" s="13">
+        <v>360.28</v>
+      </c>
+      <c r="E109" s="13">
+        <v>195</v>
+      </c>
+      <c r="F109" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8475897435897435</v>
+      </c>
+      <c r="G109" s="16">
+        <f>B109/E109</f>
+        <v>541099.69743589743</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="13">
+        <v>126887772</v>
+      </c>
+      <c r="C110" s="14">
+        <f>B110/1024</f>
+        <v>123913.83984375</v>
+      </c>
+      <c r="D110" s="13">
+        <v>439.23</v>
+      </c>
+      <c r="E110" s="13">
+        <v>199</v>
+      </c>
+      <c r="F110" s="15">
+        <f t="shared" si="1"/>
+        <v>2.2071859296482415</v>
+      </c>
+      <c r="G110" s="16">
+        <f>B110/E110</f>
+        <v>637626.99497487443</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="13">
+        <v>14668340</v>
+      </c>
+      <c r="C111" s="14">
+        <f>B111/1024</f>
+        <v>14324.55078125</v>
+      </c>
+      <c r="D111" s="13">
+        <v>159.83000000000001</v>
+      </c>
+      <c r="E111" s="13">
+        <v>63</v>
+      </c>
+      <c r="F111" s="15">
+        <f t="shared" si="1"/>
+        <v>2.5369841269841271</v>
+      </c>
+      <c r="G111" s="16">
+        <f>B111/E111</f>
+        <v>232830.79365079364</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="13">
+        <v>24834800</v>
+      </c>
+      <c r="C112" s="14">
+        <f>B112/1024</f>
+        <v>24252.734375</v>
+      </c>
+      <c r="D112" s="13">
+        <v>224.12</v>
+      </c>
+      <c r="E112" s="13">
+        <v>377</v>
+      </c>
+      <c r="F112" s="15">
+        <f t="shared" si="1"/>
+        <v>0.59448275862068967</v>
+      </c>
+      <c r="G112" s="16">
+        <f>B112/E112</f>
+        <v>65874.801061007951</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="13">
+        <v>11268040</v>
+      </c>
+      <c r="C113" s="14">
+        <f>B113/1024</f>
+        <v>11003.9453125</v>
+      </c>
+      <c r="D113" s="13">
+        <v>164.24</v>
+      </c>
+      <c r="E113" s="13">
+        <v>665</v>
+      </c>
+      <c r="F113" s="15">
+        <f t="shared" si="1"/>
+        <v>0.24697744360902257</v>
+      </c>
+      <c r="G113" s="16">
+        <f>B113/E113</f>
+        <v>16944.42105263158</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" s="13">
+        <v>81093676</v>
+      </c>
+      <c r="C114" s="14">
+        <f>B114/1024</f>
+        <v>79193.04296875</v>
+      </c>
+      <c r="D114" s="13">
+        <v>219.36</v>
+      </c>
+      <c r="E114" s="13">
+        <v>103</v>
+      </c>
+      <c r="F114" s="15">
+        <f t="shared" si="1"/>
+        <v>2.1297087378640778</v>
+      </c>
+      <c r="G114" s="16">
+        <f>B114/E114</f>
+        <v>787317.24271844665</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" s="13">
+        <v>26222772</v>
+      </c>
+      <c r="C115" s="14">
+        <f>B115/1024</f>
+        <v>25608.17578125</v>
+      </c>
+      <c r="D115" s="13">
+        <v>169.44</v>
+      </c>
+      <c r="E115" s="13">
+        <v>35</v>
+      </c>
+      <c r="F115" s="15">
+        <f t="shared" si="1"/>
+        <v>4.8411428571428567</v>
+      </c>
+      <c r="G115" s="16">
+        <f>B115/E115</f>
+        <v>749222.05714285711</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" s="13">
+        <v>49567398</v>
+      </c>
+      <c r="C116" s="14">
+        <f>B116/1024</f>
+        <v>48405.662109375</v>
+      </c>
+      <c r="D116" s="13">
+        <v>485.97</v>
+      </c>
+      <c r="E116" s="13">
         <v>171</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1401754385964913</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" si="0"/>
-        <v>463552.98245614034</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
-        <v>183379860</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="F116" s="15">
         <f t="shared" si="1"/>
-        <v>179081.89453125</v>
-      </c>
-      <c r="D7" s="11">
-        <v>474.06</v>
-      </c>
-      <c r="E7" s="11">
-        <v>266</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7821804511278196</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="0"/>
-        <v>689397.96992481197</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
-        <v>65086004</v>
-      </c>
-      <c r="C8" s="10">
+        <v>2.8419298245614035</v>
+      </c>
+      <c r="G116" s="16">
+        <f>B116/E116</f>
+        <v>289867.82456140348</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" s="13">
+        <v>31791856</v>
+      </c>
+      <c r="C117" s="14">
+        <f>B117/1024</f>
+        <v>31046.734375</v>
+      </c>
+      <c r="D117" s="13">
+        <v>405.87</v>
+      </c>
+      <c r="E117" s="13">
+        <v>481</v>
+      </c>
+      <c r="F117" s="15">
         <f t="shared" si="1"/>
-        <v>63560.55078125</v>
-      </c>
-      <c r="D8" s="11">
-        <v>175.06</v>
-      </c>
-      <c r="E8" s="11">
-        <v>77</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>2.2735064935064937</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="0"/>
-        <v>845272.77922077919</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
-        <v>15246262</v>
-      </c>
-      <c r="C9" s="10">
+        <v>0.84380457380457385</v>
+      </c>
+      <c r="G117" s="16">
+        <f>B117/E117</f>
+        <v>66095.334719334714</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" s="13">
+        <v>4779660</v>
+      </c>
+      <c r="C118" s="14">
+        <f>B118/1024</f>
+        <v>4667.63671875</v>
+      </c>
+      <c r="D118" s="13">
+        <v>127.95</v>
+      </c>
+      <c r="E118" s="13">
+        <v>119</v>
+      </c>
+      <c r="F118" s="15">
         <f t="shared" si="1"/>
-        <v>14888.927734375</v>
-      </c>
-      <c r="D9" s="11">
-        <v>136.1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>414</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>0.32874396135265699</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="0"/>
-        <v>36826.719806763285</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
-        <v>37129694</v>
-      </c>
-      <c r="C10" s="10">
+        <v>1.0752100840336134</v>
+      </c>
+      <c r="G118" s="16">
+        <f>B118/E118</f>
+        <v>40165.210084033613</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="13">
+        <v>14214895</v>
+      </c>
+      <c r="C119" s="14">
+        <f>B119/1024</f>
+        <v>13881.7333984375</v>
+      </c>
+      <c r="D119" s="13">
+        <v>156.69</v>
+      </c>
+      <c r="E119" s="13">
+        <v>36</v>
+      </c>
+      <c r="F119" s="15">
         <f t="shared" si="1"/>
-        <v>36259.466796875</v>
-      </c>
-      <c r="D10" s="11">
-        <v>140.38999999999999</v>
-      </c>
-      <c r="E10" s="11">
-        <v>63</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>2.2284126984126984</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="0"/>
-        <v>589360.22222222225</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
-        <v>39562151</v>
-      </c>
-      <c r="C11" s="10">
+        <v>4.3525</v>
+      </c>
+      <c r="G119" s="16">
+        <f>B119/E119</f>
+        <v>394858.19444444444</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" s="13">
+        <v>60394120</v>
+      </c>
+      <c r="C120" s="14">
+        <f>B120/1024</f>
+        <v>58978.6328125</v>
+      </c>
+      <c r="D120" s="13">
+        <v>254.77</v>
+      </c>
+      <c r="E120" s="13">
+        <v>99</v>
+      </c>
+      <c r="F120" s="15">
         <f t="shared" si="1"/>
-        <v>38634.9130859375</v>
-      </c>
-      <c r="D11" s="11">
-        <v>198.02</v>
-      </c>
-      <c r="E11" s="11">
-        <v>73</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>2.7126027397260275</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>541947.27397260279</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
-        <v>36073765</v>
-      </c>
-      <c r="C12" s="10">
+        <v>2.5734343434343434</v>
+      </c>
+      <c r="G120" s="16">
+        <f>B120/E120</f>
+        <v>610041.61616161617</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121" s="13">
+        <v>7118643</v>
+      </c>
+      <c r="C121" s="14">
+        <f>B121/1024</f>
+        <v>6951.7998046875</v>
+      </c>
+      <c r="D121" s="13">
+        <v>193.58</v>
+      </c>
+      <c r="E121" s="13">
+        <v>154</v>
+      </c>
+      <c r="F121" s="15">
         <f t="shared" si="1"/>
-        <v>35228.2861328125</v>
-      </c>
-      <c r="D12" s="11">
-        <v>176.84</v>
-      </c>
-      <c r="E12" s="11">
-        <v>89</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>1.9869662921348314</v>
-      </c>
-      <c r="G12" s="13">
-        <f t="shared" si="0"/>
-        <v>405323.20224719099</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
-        <v>60034062</v>
-      </c>
-      <c r="C13" s="10">
+        <v>1.2570129870129871</v>
+      </c>
+      <c r="G121" s="16">
+        <f>B121/E121</f>
+        <v>46224.954545454544</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122" s="13">
+        <v>152089562</v>
+      </c>
+      <c r="C122" s="14">
+        <f>B122/1024</f>
+        <v>148524.962890625</v>
+      </c>
+      <c r="D122" s="13">
+        <v>381.32</v>
+      </c>
+      <c r="E122" s="13">
+        <v>243</v>
+      </c>
+      <c r="F122" s="15">
         <f t="shared" si="1"/>
-        <v>58627.013671875</v>
-      </c>
-      <c r="D13" s="11">
-        <v>434.31</v>
-      </c>
-      <c r="E13" s="11">
-        <v>303</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4333663366336633</v>
-      </c>
-      <c r="G13" s="13">
-        <f t="shared" si="0"/>
-        <v>198132.21782178216</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <v>26594507</v>
-      </c>
-      <c r="C14" s="10">
+        <v>1.5692181069958848</v>
+      </c>
+      <c r="G122" s="16">
+        <f>B122/E122</f>
+        <v>625882.97119341569</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" s="13">
+        <v>104889308</v>
+      </c>
+      <c r="C123" s="14">
+        <f>B123/1024</f>
+        <v>102430.96484375</v>
+      </c>
+      <c r="D123" s="13">
+        <v>448.52</v>
+      </c>
+      <c r="E123" s="13">
+        <v>204</v>
+      </c>
+      <c r="F123" s="15">
         <f t="shared" si="1"/>
-        <v>25971.1982421875</v>
-      </c>
-      <c r="D14" s="11">
-        <v>236.35</v>
-      </c>
-      <c r="E14" s="11">
-        <v>548</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>0.43129562043795622</v>
-      </c>
-      <c r="G14" s="13">
-        <f t="shared" si="0"/>
-        <v>48530.122262773722</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>44816476</v>
-      </c>
-      <c r="C15" s="10">
+        <v>2.1986274509803923</v>
+      </c>
+      <c r="G123" s="16">
+        <f>B123/E123</f>
+        <v>514163.27450980392</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" s="13">
+        <v>5271179</v>
+      </c>
+      <c r="C124" s="14">
+        <f>B124/1024</f>
+        <v>5147.6357421875</v>
+      </c>
+      <c r="D124" s="13">
+        <v>133.75</v>
+      </c>
+      <c r="E124" s="13">
+        <v>114</v>
+      </c>
+      <c r="F124" s="15">
         <f t="shared" si="1"/>
-        <v>43766.08984375</v>
-      </c>
-      <c r="D15" s="11">
-        <v>223.17</v>
-      </c>
-      <c r="E15" s="11">
-        <v>103</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>2.1666990291262134</v>
-      </c>
-      <c r="G15" s="13">
-        <f t="shared" si="0"/>
-        <v>435111.41747572814</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
-        <v>123044382</v>
-      </c>
-      <c r="C16" s="10">
+        <v>1.1732456140350878</v>
+      </c>
+      <c r="G124" s="16">
+        <f>B124/E124</f>
+        <v>46238.412280701756</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" s="13">
+        <v>14613261</v>
+      </c>
+      <c r="C125" s="14">
+        <f>B125/1024</f>
+        <v>14270.7626953125</v>
+      </c>
+      <c r="D125" s="13">
+        <v>165.9</v>
+      </c>
+      <c r="E125" s="13">
+        <v>130</v>
+      </c>
+      <c r="F125" s="15">
         <f t="shared" si="1"/>
-        <v>120160.529296875</v>
-      </c>
-      <c r="D16" s="11">
-        <v>368.11</v>
-      </c>
-      <c r="E16" s="11">
-        <v>168</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>2.1911309523809526</v>
-      </c>
-      <c r="G16" s="13">
-        <f t="shared" si="0"/>
-        <v>732407.03571428568</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
-        <v>82684358</v>
-      </c>
-      <c r="C17" s="10">
+        <v>1.2761538461538462</v>
+      </c>
+      <c r="G125" s="16">
+        <f>B125/E125</f>
+        <v>112409.7</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" s="13">
+        <v>25193277</v>
+      </c>
+      <c r="C126" s="14">
+        <f>B126/1024</f>
+        <v>24602.8095703125</v>
+      </c>
+      <c r="D126" s="13">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="E126" s="13">
+        <v>78</v>
+      </c>
+      <c r="F126" s="15">
         <f t="shared" si="1"/>
-        <v>80746.443359375</v>
-      </c>
-      <c r="D17" s="11">
-        <v>372.31</v>
-      </c>
-      <c r="E17" s="11">
-        <v>162</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>2.29820987654321</v>
-      </c>
-      <c r="G17" s="13">
-        <f t="shared" si="0"/>
-        <v>510397.27160493826</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
-        <v>35366936</v>
-      </c>
-      <c r="C18" s="10">
+        <v>3.5076923076923081</v>
+      </c>
+      <c r="G126" s="16">
+        <f>B126/E126</f>
+        <v>322990.73076923075</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="13">
+        <v>78458416</v>
+      </c>
+      <c r="C127" s="14">
+        <f>B127/1024</f>
+        <v>76619.546875</v>
+      </c>
+      <c r="D127" s="13">
+        <v>285.79000000000002</v>
+      </c>
+      <c r="E127" s="13">
+        <v>102</v>
+      </c>
+      <c r="F127" s="15">
         <f t="shared" si="1"/>
-        <v>34538.0234375</v>
-      </c>
-      <c r="D18" s="11">
-        <v>414.49</v>
-      </c>
-      <c r="E18" s="11">
-        <v>601</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.68966722129783697</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" ref="G18:G81" si="3">B18/E18</f>
-        <v>58846.815307820303</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
-        <v>36645396</v>
-      </c>
-      <c r="C19" s="10">
+        <v>2.8018627450980396</v>
+      </c>
+      <c r="G127" s="16">
+        <f>B127/E127</f>
+        <v>769200.15686274506</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="13">
+        <v>36434121</v>
+      </c>
+      <c r="C128" s="14">
+        <f>B128/1024</f>
+        <v>35580.1962890625</v>
+      </c>
+      <c r="D128" s="13">
+        <v>334.6</v>
+      </c>
+      <c r="E128" s="13">
+        <v>378</v>
+      </c>
+      <c r="F128" s="15">
         <f t="shared" si="1"/>
-        <v>35786.51953125</v>
-      </c>
-      <c r="D19" s="11">
-        <v>223.26</v>
-      </c>
-      <c r="E19" s="11">
-        <v>75</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="2"/>
-        <v>2.9767999999999999</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" si="3"/>
-        <v>488605.28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
-        <v>38012413</v>
-      </c>
-      <c r="C20" s="10">
+        <v>0.8851851851851853</v>
+      </c>
+      <c r="G128" s="16">
+        <f>B128/E128</f>
+        <v>96386.563492063491</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" s="13">
+        <v>22652453</v>
+      </c>
+      <c r="C129" s="14">
+        <f>B129/1024</f>
+        <v>22121.5361328125</v>
+      </c>
+      <c r="D129" s="13">
+        <v>201.3</v>
+      </c>
+      <c r="E129" s="13">
+        <v>908</v>
+      </c>
+      <c r="F129" s="15">
         <f t="shared" si="1"/>
-        <v>37121.4970703125</v>
-      </c>
-      <c r="D20" s="11">
-        <v>134.56</v>
-      </c>
-      <c r="E20" s="11">
-        <v>54</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="2"/>
-        <v>2.4918518518518518</v>
-      </c>
-      <c r="G20" s="13">
-        <f t="shared" si="3"/>
-        <v>703933.57407407404</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
-        <v>17763421</v>
-      </c>
-      <c r="C21" s="10">
+        <v>0.22169603524229076</v>
+      </c>
+      <c r="G129" s="16">
+        <f>B129/E129</f>
+        <v>24947.635462555067</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="13">
+        <v>21954173</v>
+      </c>
+      <c r="C130" s="14">
+        <f>B130/1024</f>
+        <v>21439.6220703125</v>
+      </c>
+      <c r="D130" s="13">
+        <v>323.3</v>
+      </c>
+      <c r="E130" s="13">
+        <v>861</v>
+      </c>
+      <c r="F130" s="15">
         <f t="shared" si="1"/>
-        <v>17347.0908203125</v>
-      </c>
-      <c r="D21" s="11">
-        <v>288.42</v>
-      </c>
-      <c r="E21" s="11">
-        <v>599</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="2"/>
-        <v>0.48150250417362273</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" si="3"/>
-        <v>29655.126878130217</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
-        <v>98781561</v>
-      </c>
-      <c r="C22" s="10">
-        <f t="shared" si="1"/>
-        <v>96466.3681640625</v>
-      </c>
-      <c r="D22" s="11">
-        <v>443.97</v>
-      </c>
-      <c r="E22" s="11">
-        <v>187</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3741711229946527</v>
-      </c>
-      <c r="G22" s="13">
-        <f t="shared" si="3"/>
-        <v>528243.64171122992</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
-        <v>23521286</v>
-      </c>
-      <c r="C23" s="10">
-        <f t="shared" si="1"/>
-        <v>22970.005859375</v>
-      </c>
-      <c r="D23" s="11">
-        <v>209.8</v>
-      </c>
-      <c r="E23" s="11">
-        <v>301</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.69700996677740867</v>
-      </c>
-      <c r="G23" s="13">
-        <f t="shared" si="3"/>
-        <v>78143.807308970107</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
-        <v>27598062</v>
-      </c>
-      <c r="C24" s="10">
-        <f t="shared" si="1"/>
-        <v>26951.232421875</v>
-      </c>
-      <c r="D24" s="11">
-        <v>345.28</v>
-      </c>
-      <c r="E24" s="11">
-        <v>441</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="2"/>
-        <v>0.78294784580498855</v>
-      </c>
-      <c r="G24" s="13">
-        <f t="shared" si="3"/>
-        <v>62580.639455782315</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
-        <v>78717240</v>
-      </c>
-      <c r="C25" s="10">
-        <f t="shared" si="1"/>
-        <v>76872.3046875</v>
-      </c>
-      <c r="D25" s="11">
-        <v>287.86</v>
-      </c>
-      <c r="E25" s="11">
-        <v>118</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="2"/>
-        <v>2.4394915254237288</v>
-      </c>
-      <c r="G25" s="13">
-        <f t="shared" si="3"/>
-        <v>667095.25423728814</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
-        <v>11093690</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" si="1"/>
-        <v>10833.681640625</v>
-      </c>
-      <c r="D26" s="11">
-        <v>247.6</v>
-      </c>
-      <c r="E26" s="11">
-        <v>213</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1624413145539907</v>
-      </c>
-      <c r="G26" s="13">
-        <f t="shared" si="3"/>
-        <v>52083.051643192492</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
-        <v>8415945</v>
-      </c>
-      <c r="C27" s="10">
-        <f t="shared" si="1"/>
-        <v>8218.6962890625</v>
-      </c>
-      <c r="D27" s="11">
-        <v>203.88</v>
-      </c>
-      <c r="E27" s="11">
-        <v>375</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="2"/>
-        <v>0.54367999999999994</v>
-      </c>
-      <c r="G27" s="13">
-        <f t="shared" si="3"/>
-        <v>22442.52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
-        <v>21020974</v>
-      </c>
-      <c r="C28" s="10">
-        <f t="shared" si="1"/>
-        <v>20528.294921875</v>
-      </c>
-      <c r="D28" s="11">
-        <v>193.16</v>
-      </c>
-      <c r="E28" s="11">
-        <v>402</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="2"/>
-        <v>0.48049751243781091</v>
-      </c>
-      <c r="G28" s="13">
-        <f t="shared" si="3"/>
-        <v>52290.980099502485</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
-        <v>99114303</v>
-      </c>
-      <c r="C29" s="10">
-        <f t="shared" si="1"/>
-        <v>96791.3115234375</v>
-      </c>
-      <c r="D29" s="11">
-        <v>353.27</v>
-      </c>
-      <c r="E29" s="11">
-        <v>225</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="2"/>
-        <v>1.5700888888888889</v>
-      </c>
-      <c r="G29" s="13">
-        <f t="shared" si="3"/>
-        <v>440508.01333333331</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
-        <v>12595779</v>
-      </c>
-      <c r="C30" s="10">
-        <f t="shared" si="1"/>
-        <v>12300.5654296875</v>
-      </c>
-      <c r="D30" s="11">
-        <v>300.62</v>
-      </c>
-      <c r="E30" s="11">
-        <v>329</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="2"/>
-        <v>0.91373860182370825</v>
-      </c>
-      <c r="G30" s="13">
-        <f t="shared" si="3"/>
-        <v>38285.042553191488</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
-        <v>22435417</v>
-      </c>
-      <c r="C31" s="10">
-        <f t="shared" si="1"/>
-        <v>21909.5869140625</v>
-      </c>
-      <c r="D31" s="11">
-        <v>199.45</v>
-      </c>
-      <c r="E31" s="11">
-        <v>356</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="2"/>
-        <v>0.56025280898876406</v>
-      </c>
-      <c r="G31" s="13">
-        <f t="shared" si="3"/>
-        <v>63020.834269662919</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
-        <v>14713204</v>
-      </c>
-      <c r="C32" s="10">
-        <f t="shared" si="1"/>
-        <v>14368.36328125</v>
-      </c>
-      <c r="D32" s="11">
-        <v>142.18</v>
-      </c>
-      <c r="E32" s="11">
-        <v>305</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="2"/>
-        <v>0.46616393442622955</v>
-      </c>
-      <c r="G32" s="13">
-        <f t="shared" si="3"/>
-        <v>48240.013114754096</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
-        <v>10925822</v>
-      </c>
-      <c r="C33" s="10">
-        <f t="shared" si="1"/>
-        <v>10669.748046875</v>
-      </c>
-      <c r="D33" s="11">
-        <v>128.78</v>
-      </c>
-      <c r="E33" s="11">
-        <v>31</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="2"/>
-        <v>4.1541935483870969</v>
-      </c>
-      <c r="G33" s="13">
-        <f t="shared" si="3"/>
-        <v>352445.87096774194</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
-        <v>9603899</v>
-      </c>
-      <c r="C34" s="10">
-        <f t="shared" si="1"/>
-        <v>9378.8076171875</v>
-      </c>
-      <c r="D34" s="11">
-        <v>182.13</v>
-      </c>
-      <c r="E34" s="11">
-        <v>235</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="2"/>
-        <v>0.77502127659574471</v>
-      </c>
-      <c r="G34" s="13">
-        <f t="shared" si="3"/>
-        <v>40867.655319148937</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
-        <v>29274109</v>
-      </c>
-      <c r="C35" s="10">
-        <f t="shared" si="1"/>
-        <v>28587.9970703125</v>
-      </c>
-      <c r="D35" s="11">
-        <v>375.53</v>
-      </c>
-      <c r="E35" s="11">
-        <v>628</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" si="2"/>
-        <v>0.59797770700636943</v>
-      </c>
-      <c r="G35" s="13">
-        <f t="shared" si="3"/>
-        <v>46614.823248407643</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
-        <v>12578567</v>
-      </c>
-      <c r="C36" s="10">
-        <f t="shared" si="1"/>
-        <v>12283.7568359375</v>
-      </c>
-      <c r="D36" s="11">
-        <v>186.84</v>
-      </c>
-      <c r="E36" s="11">
-        <v>207</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" si="2"/>
-        <v>0.90260869565217394</v>
-      </c>
-      <c r="G36" s="13">
-        <f t="shared" si="3"/>
-        <v>60766.024154589373</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
-        <v>134291663</v>
-      </c>
-      <c r="C37" s="10">
-        <f t="shared" si="1"/>
-        <v>131144.2021484375</v>
-      </c>
-      <c r="D37" s="11">
-        <v>460.47</v>
-      </c>
-      <c r="E37" s="11">
-        <v>280</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6445357142857144</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" si="3"/>
-        <v>479613.08214285714</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
-        <v>98727081</v>
-      </c>
-      <c r="C38" s="10">
-        <f t="shared" si="1"/>
-        <v>96413.1650390625</v>
-      </c>
-      <c r="D38" s="11">
-        <v>349.69</v>
-      </c>
-      <c r="E38" s="11">
-        <v>143</v>
-      </c>
-      <c r="F38" s="5">
-        <f t="shared" si="2"/>
-        <v>2.4453846153846155</v>
-      </c>
-      <c r="G38" s="13">
-        <f t="shared" si="3"/>
-        <v>690399.16783216782</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
-        <v>27994757</v>
-      </c>
-      <c r="C39" s="10">
-        <f t="shared" si="1"/>
-        <v>27338.6298828125</v>
-      </c>
-      <c r="D39" s="11">
-        <v>250.41</v>
-      </c>
-      <c r="E39" s="11">
-        <v>480</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="2"/>
-        <v>0.52168749999999997</v>
-      </c>
-      <c r="G39" s="13">
-        <f t="shared" si="3"/>
-        <v>58322.410416666666</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
-        <v>35149649</v>
-      </c>
-      <c r="C40" s="10">
-        <f t="shared" si="1"/>
-        <v>34325.8291015625</v>
-      </c>
-      <c r="D40" s="11">
-        <v>120.53</v>
-      </c>
-      <c r="E40" s="11">
-        <v>56</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="2"/>
-        <v>2.1523214285714287</v>
-      </c>
-      <c r="G40" s="13">
-        <f t="shared" si="3"/>
-        <v>627672.30357142852</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
-        <v>45712601</v>
-      </c>
-      <c r="C41" s="10">
-        <f t="shared" si="1"/>
-        <v>44641.2119140625</v>
-      </c>
-      <c r="D41" s="11">
-        <v>412.76</v>
-      </c>
-      <c r="E41" s="11">
-        <v>577</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="2"/>
-        <v>0.7153552859618717</v>
-      </c>
-      <c r="G41" s="13">
-        <f t="shared" si="3"/>
-        <v>79224.611785095316</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
-        <v>81687470</v>
-      </c>
-      <c r="C42" s="10">
-        <f t="shared" si="1"/>
-        <v>79772.919921875</v>
-      </c>
-      <c r="D42" s="11">
-        <v>420.84</v>
-      </c>
-      <c r="E42" s="11">
-        <v>178</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3642696629213482</v>
-      </c>
-      <c r="G42" s="13">
-        <f t="shared" si="3"/>
-        <v>458918.37078651687</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
-        <v>33278259</v>
-      </c>
-      <c r="C43" s="10">
-        <f t="shared" si="1"/>
-        <v>32498.2998046875</v>
-      </c>
-      <c r="D43" s="11">
-        <v>244.24</v>
-      </c>
-      <c r="E43" s="11">
-        <v>53</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="2"/>
-        <v>4.6083018867924528</v>
-      </c>
-      <c r="G43" s="13">
-        <f t="shared" si="3"/>
-        <v>627891.67924528301</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
-        <v>33182781</v>
-      </c>
-      <c r="C44" s="10">
-        <f t="shared" si="1"/>
-        <v>32405.0595703125</v>
-      </c>
-      <c r="D44" s="11">
-        <v>122.65</v>
-      </c>
-      <c r="E44" s="11">
-        <v>52</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3586538461538464</v>
-      </c>
-      <c r="G44" s="13">
-        <f t="shared" si="3"/>
-        <v>638130.40384615387</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
-        <v>24124567</v>
-      </c>
-      <c r="C45" s="10">
-        <f t="shared" si="1"/>
-        <v>23559.1474609375</v>
-      </c>
-      <c r="D45" s="11">
-        <v>262.87</v>
-      </c>
-      <c r="E45" s="11">
-        <v>77</v>
-      </c>
-      <c r="F45" s="5">
-        <f t="shared" si="2"/>
-        <v>3.413896103896104</v>
-      </c>
-      <c r="G45" s="13">
-        <f t="shared" si="3"/>
-        <v>313306.06493506493</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
-        <v>117718737</v>
-      </c>
-      <c r="C46" s="10">
-        <f t="shared" si="1"/>
-        <v>114959.7041015625</v>
-      </c>
-      <c r="D46" s="11">
-        <v>426.97</v>
-      </c>
-      <c r="E46" s="11">
-        <v>180</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3720555555555558</v>
-      </c>
-      <c r="G46" s="13">
-        <f t="shared" si="3"/>
-        <v>653992.98333333328</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
-        <v>35647012</v>
-      </c>
-      <c r="C47" s="10">
-        <f t="shared" si="1"/>
-        <v>34811.53515625</v>
-      </c>
-      <c r="D47" s="11">
-        <v>123.6</v>
-      </c>
-      <c r="E47" s="11">
-        <v>52</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3769230769230769</v>
-      </c>
-      <c r="G47" s="13">
-        <f t="shared" si="3"/>
-        <v>685519.4615384615</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
-        <v>68986179</v>
-      </c>
-      <c r="C48" s="10">
-        <f t="shared" si="1"/>
-        <v>67369.3154296875</v>
-      </c>
-      <c r="D48" s="11">
-        <v>172.92</v>
-      </c>
-      <c r="E48" s="11">
-        <v>107</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" si="2"/>
-        <v>1.61607476635514</v>
-      </c>
-      <c r="G48" s="13">
-        <f t="shared" si="3"/>
-        <v>644730.64485981304</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
-        <v>102887756</v>
-      </c>
-      <c r="C49" s="10">
-        <f t="shared" si="1"/>
-        <v>100476.32421875</v>
-      </c>
-      <c r="D49" s="11">
-        <v>334.92</v>
-      </c>
-      <c r="E49" s="11">
-        <v>129</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" si="2"/>
-        <v>2.596279069767442</v>
-      </c>
-      <c r="G49" s="13">
-        <f t="shared" si="3"/>
-        <v>797579.50387596898</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
-        <v>8666482</v>
-      </c>
-      <c r="C50" s="10">
-        <f t="shared" si="1"/>
-        <v>8463.361328125</v>
-      </c>
-      <c r="D50" s="11">
-        <v>171.27</v>
-      </c>
-      <c r="E50" s="11">
-        <v>117</v>
-      </c>
-      <c r="F50" s="5">
-        <f t="shared" si="2"/>
-        <v>1.463846153846154</v>
-      </c>
-      <c r="G50" s="13">
-        <f t="shared" si="3"/>
-        <v>74072.495726495719</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
-        <v>34913259</v>
-      </c>
-      <c r="C51" s="10">
-        <f t="shared" si="1"/>
-        <v>34094.9794921875</v>
-      </c>
-      <c r="D51" s="11">
-        <v>135.56</v>
-      </c>
-      <c r="E51" s="11">
-        <v>87</v>
-      </c>
-      <c r="F51" s="5">
-        <f t="shared" si="2"/>
-        <v>1.5581609195402299</v>
-      </c>
-      <c r="G51" s="13">
-        <f t="shared" si="3"/>
-        <v>401301.8275862069</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
-        <v>30736755</v>
-      </c>
-      <c r="C52" s="10">
-        <f t="shared" si="1"/>
-        <v>30016.3623046875</v>
-      </c>
-      <c r="D52" s="11">
-        <v>135.81</v>
-      </c>
-      <c r="E52" s="11">
-        <v>49</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" si="2"/>
-        <v>2.7716326530612245</v>
-      </c>
-      <c r="G52" s="13">
-        <f t="shared" si="3"/>
-        <v>627280.71428571432</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
-        <v>23153645</v>
-      </c>
-      <c r="C53" s="10">
-        <f t="shared" si="1"/>
-        <v>22610.9814453125</v>
-      </c>
-      <c r="D53" s="11">
-        <v>206.14</v>
-      </c>
-      <c r="E53" s="11">
-        <v>340</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="2"/>
-        <v>0.60629411764705876</v>
-      </c>
-      <c r="G53" s="13">
-        <f t="shared" si="3"/>
-        <v>68098.955882352937</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
-        <v>6462422</v>
-      </c>
-      <c r="C54" s="10">
-        <f t="shared" si="1"/>
-        <v>6310.958984375</v>
-      </c>
-      <c r="D54" s="11">
-        <v>144.80000000000001</v>
-      </c>
-      <c r="E54" s="11">
-        <v>111</v>
-      </c>
-      <c r="F54" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3045045045045045</v>
-      </c>
-      <c r="G54" s="13">
-        <f t="shared" si="3"/>
-        <v>58220.018018018018</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
-        <v>137961720</v>
-      </c>
-      <c r="C55" s="10">
-        <f t="shared" si="1"/>
-        <v>134728.2421875</v>
-      </c>
-      <c r="D55" s="11">
-        <v>485.04</v>
-      </c>
-      <c r="E55" s="11">
-        <v>262</v>
-      </c>
-      <c r="F55" s="5">
-        <f t="shared" si="2"/>
-        <v>1.8512977099236643</v>
-      </c>
-      <c r="G55" s="13">
-        <f t="shared" si="3"/>
-        <v>526571.45038167934</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
-        <v>34040175</v>
-      </c>
-      <c r="C56" s="10">
-        <f t="shared" si="1"/>
-        <v>33242.3583984375</v>
-      </c>
-      <c r="D56" s="11">
-        <v>190.01</v>
-      </c>
-      <c r="E56" s="11">
-        <v>63</v>
-      </c>
-      <c r="F56" s="5">
-        <f t="shared" si="2"/>
-        <v>3.0160317460317461</v>
-      </c>
-      <c r="G56" s="13">
-        <f t="shared" si="3"/>
-        <v>540320.23809523811</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
-        <v>45608803</v>
-      </c>
-      <c r="C57" s="10">
-        <f t="shared" si="1"/>
-        <v>44539.8466796875</v>
-      </c>
-      <c r="D57" s="11">
-        <v>314.17</v>
-      </c>
-      <c r="E57" s="11">
-        <v>117</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" si="2"/>
-        <v>2.6852136752136753</v>
-      </c>
-      <c r="G57" s="13">
-        <f t="shared" si="3"/>
-        <v>389818.82905982906</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
-        <v>21975562</v>
-      </c>
-      <c r="C58" s="10">
-        <f t="shared" si="1"/>
-        <v>21460.509765625</v>
-      </c>
-      <c r="D58" s="11">
-        <v>197.63</v>
-      </c>
-      <c r="E58" s="11">
-        <v>894</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" si="2"/>
-        <v>0.22106263982102908</v>
-      </c>
-      <c r="G58" s="13">
-        <f t="shared" si="3"/>
-        <v>24581.165548098434</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
-        <v>43764146</v>
-      </c>
-      <c r="C59" s="10">
-        <f t="shared" si="1"/>
-        <v>42738.423828125</v>
-      </c>
-      <c r="D59" s="11">
-        <v>235.68</v>
-      </c>
-      <c r="E59" s="11">
-        <v>88</v>
-      </c>
-      <c r="F59" s="5">
-        <f t="shared" si="2"/>
-        <v>2.6781818181818182</v>
-      </c>
-      <c r="G59" s="13">
-        <f t="shared" si="3"/>
-        <v>497319.84090909088</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
-        <v>8498889</v>
-      </c>
-      <c r="C60" s="10">
-        <f t="shared" si="1"/>
-        <v>8299.6962890625</v>
-      </c>
-      <c r="D60" s="11">
-        <v>123.48</v>
-      </c>
-      <c r="E60" s="11">
-        <v>139</v>
-      </c>
-      <c r="F60" s="5">
-        <f t="shared" si="2"/>
-        <v>0.88834532374100728</v>
-      </c>
-      <c r="G60" s="13">
-        <f t="shared" si="3"/>
-        <v>61143.08633093525</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="12">
-        <v>89822744</v>
-      </c>
-      <c r="C61" s="10">
-        <f t="shared" si="1"/>
-        <v>87717.5234375</v>
-      </c>
-      <c r="D61" s="11">
-        <v>306.62</v>
-      </c>
-      <c r="E61" s="11">
-        <v>199</v>
-      </c>
-      <c r="F61" s="5">
-        <f t="shared" si="2"/>
-        <v>1.5408040201005024</v>
-      </c>
-      <c r="G61" s="13">
-        <f t="shared" si="3"/>
-        <v>451370.57286432158</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="12">
-        <v>45849337</v>
-      </c>
-      <c r="C62" s="10">
-        <f t="shared" si="1"/>
-        <v>44774.7431640625</v>
-      </c>
-      <c r="D62" s="11">
-        <v>153.16</v>
-      </c>
-      <c r="E62" s="11">
-        <v>65</v>
-      </c>
-      <c r="F62" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3563076923076922</v>
-      </c>
-      <c r="G62" s="13">
-        <f t="shared" si="3"/>
-        <v>705374.41538461542</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
-        <v>111235816</v>
-      </c>
-      <c r="C63" s="10">
-        <f t="shared" si="1"/>
-        <v>108628.7265625</v>
-      </c>
-      <c r="D63" s="11">
-        <v>390.21</v>
-      </c>
-      <c r="E63" s="11">
-        <v>108</v>
-      </c>
-      <c r="F63" s="5">
-        <f t="shared" si="2"/>
-        <v>3.6130555555555555</v>
-      </c>
-      <c r="G63" s="13">
-        <f t="shared" si="3"/>
-        <v>1029961.2592592592</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
-        <v>11384057</v>
-      </c>
-      <c r="C64" s="10">
-        <f t="shared" si="1"/>
-        <v>11117.2431640625</v>
-      </c>
-      <c r="D64" s="11">
-        <v>122.16</v>
-      </c>
-      <c r="E64" s="11">
-        <v>179</v>
-      </c>
-      <c r="F64" s="5">
-        <f t="shared" si="2"/>
-        <v>0.68245810055865919</v>
-      </c>
-      <c r="G64" s="13">
-        <f t="shared" si="3"/>
-        <v>63598.083798882682</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
-        <v>103624684</v>
-      </c>
-      <c r="C65" s="10">
-        <f t="shared" si="1"/>
-        <v>101195.98046875</v>
-      </c>
-      <c r="D65" s="11">
-        <v>243.23</v>
-      </c>
-      <c r="E65" s="11">
-        <v>108</v>
-      </c>
-      <c r="F65" s="5">
-        <f t="shared" si="2"/>
-        <v>2.2521296296296294</v>
-      </c>
-      <c r="G65" s="13">
-        <f t="shared" si="3"/>
-        <v>959487.81481481483</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="12">
-        <v>60394405</v>
-      </c>
-      <c r="C66" s="10">
-        <f t="shared" si="1"/>
-        <v>58978.9111328125</v>
-      </c>
-      <c r="D66" s="11">
-        <v>210.05</v>
-      </c>
-      <c r="E66" s="11">
-        <v>75</v>
-      </c>
-      <c r="F66" s="5">
-        <f t="shared" si="2"/>
-        <v>2.8006666666666669</v>
-      </c>
-      <c r="G66" s="13">
-        <f t="shared" si="3"/>
-        <v>805258.73333333328</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="12">
-        <v>117337794</v>
-      </c>
-      <c r="C67" s="10">
-        <f t="shared" si="1"/>
-        <v>114587.689453125</v>
-      </c>
-      <c r="D67" s="11">
-        <v>414.13</v>
-      </c>
-      <c r="E67" s="11">
-        <v>251</v>
-      </c>
-      <c r="F67" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6499203187250995</v>
-      </c>
-      <c r="G67" s="13">
-        <f t="shared" si="3"/>
-        <v>467481.25099601591</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="12">
-        <v>136879796</v>
-      </c>
-      <c r="C68" s="10">
-        <f t="shared" si="1"/>
-        <v>133671.67578125</v>
-      </c>
-      <c r="D68" s="11">
-        <v>354.57</v>
-      </c>
-      <c r="E68" s="11">
-        <v>193</v>
-      </c>
-      <c r="F68" s="5">
-        <f t="shared" si="2"/>
-        <v>1.8371502590673574</v>
-      </c>
-      <c r="G68" s="13">
-        <f t="shared" si="3"/>
-        <v>709221.74093264248</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="12">
-        <v>47209514</v>
-      </c>
-      <c r="C69" s="10">
-        <f t="shared" ref="C69:C130" si="4">B69/1024</f>
-        <v>46103.041015625</v>
-      </c>
-      <c r="D69" s="11">
-        <v>120</v>
-      </c>
-      <c r="E69" s="11">
-        <v>50</v>
-      </c>
-      <c r="F69" s="5">
-        <f t="shared" ref="F69:F130" si="5">D69/E69</f>
-        <v>2.4</v>
-      </c>
-      <c r="G69" s="13">
-        <f t="shared" si="3"/>
-        <v>944190.28</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="12">
-        <v>46052806</v>
-      </c>
-      <c r="C70" s="10">
-        <f t="shared" si="4"/>
-        <v>44973.443359375</v>
-      </c>
-      <c r="D70" s="11">
-        <v>167.49</v>
-      </c>
-      <c r="E70" s="11">
-        <v>60</v>
-      </c>
-      <c r="F70" s="5">
-        <f t="shared" si="5"/>
-        <v>2.7915000000000001</v>
-      </c>
-      <c r="G70" s="13">
-        <f t="shared" si="3"/>
-        <v>767546.76666666672</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="12">
-        <v>14117962</v>
-      </c>
-      <c r="C71" s="10">
-        <f t="shared" si="4"/>
-        <v>13787.072265625</v>
-      </c>
-      <c r="D71" s="11">
-        <v>126.15</v>
-      </c>
-      <c r="E71" s="11">
-        <v>187</v>
-      </c>
-      <c r="F71" s="5">
-        <f t="shared" si="5"/>
-        <v>0.6745989304812835</v>
-      </c>
-      <c r="G71" s="13">
-        <f t="shared" si="3"/>
-        <v>75497.122994652411</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="12">
-        <v>27882961</v>
-      </c>
-      <c r="C72" s="10">
-        <f t="shared" si="4"/>
-        <v>27229.4541015625</v>
-      </c>
-      <c r="D72" s="11">
-        <v>243.98</v>
-      </c>
-      <c r="E72" s="11">
-        <v>377</v>
-      </c>
-      <c r="F72" s="5">
-        <f t="shared" si="5"/>
-        <v>0.64716180371352783</v>
-      </c>
-      <c r="G72" s="13">
-        <f t="shared" si="3"/>
-        <v>73960.108753315653</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="12">
-        <v>12397768</v>
-      </c>
-      <c r="C73" s="10">
-        <f t="shared" si="4"/>
-        <v>12107.1953125</v>
-      </c>
-      <c r="D73" s="11">
-        <v>156.72</v>
-      </c>
-      <c r="E73" s="11">
-        <v>46</v>
-      </c>
-      <c r="F73" s="5">
-        <f t="shared" si="5"/>
-        <v>3.4069565217391302</v>
-      </c>
-      <c r="G73" s="13">
-        <f t="shared" si="3"/>
-        <v>269516.69565217389</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="12">
-        <v>35489411</v>
-      </c>
-      <c r="C74" s="10">
-        <f t="shared" si="4"/>
-        <v>34657.6279296875</v>
-      </c>
-      <c r="D74" s="11">
-        <v>129.61000000000001</v>
-      </c>
-      <c r="E74" s="11">
-        <v>32</v>
-      </c>
-      <c r="F74" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0503125000000004</v>
-      </c>
-      <c r="G74" s="13">
-        <f t="shared" si="3"/>
-        <v>1109044.09375</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
-        <v>52342500</v>
-      </c>
-      <c r="C75" s="10">
-        <f t="shared" si="4"/>
-        <v>51115.72265625</v>
-      </c>
-      <c r="D75" s="11">
-        <v>180.67</v>
-      </c>
-      <c r="E75" s="11">
-        <v>41</v>
-      </c>
-      <c r="F75" s="5">
-        <f t="shared" si="5"/>
-        <v>4.4065853658536582</v>
-      </c>
-      <c r="G75" s="13">
-        <f t="shared" si="3"/>
-        <v>1276646.3414634147</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="12">
-        <v>82972304</v>
-      </c>
-      <c r="C76" s="10">
-        <f t="shared" si="4"/>
-        <v>81027.640625</v>
-      </c>
-      <c r="D76" s="11">
-        <v>271.35000000000002</v>
-      </c>
-      <c r="E76" s="11">
-        <v>158</v>
-      </c>
-      <c r="F76" s="5">
-        <f t="shared" si="5"/>
-        <v>1.7174050632911393</v>
-      </c>
-      <c r="G76" s="13">
-        <f t="shared" si="3"/>
-        <v>525141.16455696197</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="12">
-        <v>16188632</v>
-      </c>
-      <c r="C77" s="10">
-        <f t="shared" si="4"/>
-        <v>15809.2109375</v>
-      </c>
-      <c r="D77" s="11">
-        <v>215.17</v>
-      </c>
-      <c r="E77" s="11">
-        <v>908</v>
-      </c>
-      <c r="F77" s="5">
-        <f t="shared" si="5"/>
-        <v>0.2369713656387665</v>
-      </c>
-      <c r="G77" s="13">
-        <f t="shared" si="3"/>
-        <v>17828.889867841408</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="12">
-        <v>9966528</v>
-      </c>
-      <c r="C78" s="10">
-        <f t="shared" si="4"/>
-        <v>9732.9375</v>
-      </c>
-      <c r="D78" s="11">
-        <v>147.15</v>
-      </c>
-      <c r="E78" s="11">
-        <v>30</v>
-      </c>
-      <c r="F78" s="5">
-        <f t="shared" si="5"/>
-        <v>4.9050000000000002</v>
-      </c>
-      <c r="G78" s="13">
-        <f t="shared" si="3"/>
-        <v>332217.59999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="12">
-        <v>132504522</v>
-      </c>
-      <c r="C79" s="10">
-        <f t="shared" si="4"/>
-        <v>129398.947265625</v>
-      </c>
-      <c r="D79" s="11">
-        <v>454</v>
-      </c>
-      <c r="E79" s="11">
-        <v>370</v>
-      </c>
-      <c r="F79" s="5">
-        <f t="shared" si="5"/>
-        <v>1.2270270270270269</v>
-      </c>
-      <c r="G79" s="13">
-        <f t="shared" si="3"/>
-        <v>358120.32972972974</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="12">
-        <v>119686483</v>
-      </c>
-      <c r="C80" s="10">
-        <f t="shared" si="4"/>
-        <v>116881.3310546875</v>
-      </c>
-      <c r="D80" s="11">
-        <v>410.02</v>
-      </c>
-      <c r="E80" s="11">
-        <v>300</v>
-      </c>
-      <c r="F80" s="5">
-        <f t="shared" si="5"/>
-        <v>1.3667333333333334</v>
-      </c>
-      <c r="G80" s="13">
-        <f t="shared" si="3"/>
-        <v>398954.94333333336</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="12">
-        <v>49111124</v>
-      </c>
-      <c r="C81" s="10">
-        <f t="shared" si="4"/>
-        <v>47960.08203125</v>
-      </c>
-      <c r="D81" s="11">
-        <v>178.19</v>
-      </c>
-      <c r="E81" s="11">
-        <v>64</v>
-      </c>
-      <c r="F81" s="5">
-        <f t="shared" si="5"/>
-        <v>2.78421875</v>
-      </c>
-      <c r="G81" s="13">
-        <f t="shared" si="3"/>
-        <v>767361.3125</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="12">
-        <v>37076433</v>
-      </c>
-      <c r="C82" s="10">
-        <f t="shared" si="4"/>
-        <v>36207.4541015625</v>
-      </c>
-      <c r="D82" s="11">
-        <v>380.6</v>
-      </c>
-      <c r="E82" s="11">
-        <v>121</v>
-      </c>
-      <c r="F82" s="5">
-        <f t="shared" si="5"/>
-        <v>3.1454545454545455</v>
-      </c>
-      <c r="G82" s="13">
-        <f t="shared" ref="G82:G130" si="6">B82/E82</f>
-        <v>306416.80165289255</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="12">
-        <v>17811593</v>
-      </c>
-      <c r="C83" s="10">
-        <f t="shared" si="4"/>
-        <v>17394.1337890625</v>
-      </c>
-      <c r="D83" s="11">
-        <v>229.24</v>
-      </c>
-      <c r="E83" s="11">
-        <v>1058</v>
-      </c>
-      <c r="F83" s="5">
-        <f t="shared" si="5"/>
-        <v>0.21667296786389414</v>
-      </c>
-      <c r="G83" s="13">
-        <f t="shared" si="6"/>
-        <v>16835.15406427221</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="12">
-        <v>65826210</v>
-      </c>
-      <c r="C84" s="10">
-        <f t="shared" si="4"/>
-        <v>64283.408203125</v>
-      </c>
-      <c r="D84" s="11">
-        <v>166.44</v>
-      </c>
-      <c r="E84" s="11">
-        <v>63</v>
-      </c>
-      <c r="F84" s="5">
-        <f t="shared" si="5"/>
-        <v>2.6419047619047618</v>
-      </c>
-      <c r="G84" s="13">
-        <f t="shared" si="6"/>
-        <v>1044860.4761904762</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="12">
-        <v>25354902</v>
-      </c>
-      <c r="C85" s="10">
-        <f t="shared" si="4"/>
-        <v>24760.646484375</v>
-      </c>
-      <c r="D85" s="11">
-        <v>271.37</v>
-      </c>
-      <c r="E85" s="11">
-        <v>73</v>
-      </c>
-      <c r="F85" s="5">
-        <f t="shared" si="5"/>
-        <v>3.7173972602739727</v>
-      </c>
-      <c r="G85" s="13">
-        <f t="shared" si="6"/>
-        <v>347327.42465753423</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="12">
-        <v>11700264</v>
-      </c>
-      <c r="C86" s="10">
-        <f t="shared" si="4"/>
-        <v>11426.0390625</v>
-      </c>
-      <c r="D86" s="11">
-        <v>126.78</v>
-      </c>
-      <c r="E86" s="11">
-        <v>30</v>
-      </c>
-      <c r="F86" s="5">
-        <f t="shared" si="5"/>
-        <v>4.226</v>
-      </c>
-      <c r="G86" s="13">
-        <f t="shared" si="6"/>
-        <v>390008.8</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="12">
-        <v>12763123</v>
-      </c>
-      <c r="C87" s="10">
-        <f t="shared" si="4"/>
-        <v>12463.9873046875</v>
-      </c>
-      <c r="D87" s="11">
-        <v>120.08</v>
-      </c>
-      <c r="E87" s="11">
-        <v>147</v>
-      </c>
-      <c r="F87" s="5">
-        <f t="shared" si="5"/>
-        <v>0.81687074829931972</v>
-      </c>
-      <c r="G87" s="13">
-        <f t="shared" si="6"/>
-        <v>86823.965986394556</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="12">
-        <v>82716993</v>
-      </c>
-      <c r="C88" s="10">
-        <f t="shared" si="4"/>
-        <v>80778.3134765625</v>
-      </c>
-      <c r="D88" s="11">
-        <v>298.56</v>
-      </c>
-      <c r="E88" s="11">
-        <v>107</v>
-      </c>
-      <c r="F88" s="5">
-        <f t="shared" si="5"/>
-        <v>2.7902803738317759</v>
-      </c>
-      <c r="G88" s="13">
-        <f t="shared" si="6"/>
-        <v>773056.00934579445</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="12">
-        <v>18891669</v>
-      </c>
-      <c r="C89" s="10">
-        <f t="shared" si="4"/>
-        <v>18448.8955078125</v>
-      </c>
-      <c r="D89" s="11">
-        <v>166.23</v>
-      </c>
-      <c r="E89" s="11">
-        <v>412</v>
-      </c>
-      <c r="F89" s="5">
-        <f t="shared" si="5"/>
-        <v>0.40347087378640772</v>
-      </c>
-      <c r="G89" s="13">
-        <f t="shared" si="6"/>
-        <v>45853.565533980582</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="12">
-        <v>52994332</v>
-      </c>
-      <c r="C90" s="10">
-        <f t="shared" si="4"/>
-        <v>51752.27734375</v>
-      </c>
-      <c r="D90" s="11">
-        <v>476.72</v>
-      </c>
-      <c r="E90" s="11">
-        <v>647</v>
-      </c>
-      <c r="F90" s="5">
-        <f t="shared" si="5"/>
-        <v>0.73681607418856265</v>
-      </c>
-      <c r="G90" s="13">
-        <f t="shared" si="6"/>
-        <v>81907.777434312215</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="12">
-        <v>19433661</v>
-      </c>
-      <c r="C91" s="10">
-        <f t="shared" si="4"/>
-        <v>18978.1845703125</v>
-      </c>
-      <c r="D91" s="11">
-        <v>182.2</v>
-      </c>
-      <c r="E91" s="11">
-        <v>473</v>
-      </c>
-      <c r="F91" s="5">
-        <f t="shared" si="5"/>
-        <v>0.38520084566596191</v>
-      </c>
-      <c r="G91" s="13">
-        <f t="shared" si="6"/>
-        <v>41085.964059196616</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="12">
-        <v>70835162</v>
-      </c>
-      <c r="C92" s="10">
-        <f t="shared" si="4"/>
-        <v>69174.962890625</v>
-      </c>
-      <c r="D92" s="11">
-        <v>177.42</v>
-      </c>
-      <c r="E92" s="11">
-        <v>102</v>
-      </c>
-      <c r="F92" s="5">
-        <f t="shared" si="5"/>
-        <v>1.7394117647058822</v>
-      </c>
-      <c r="G92" s="13">
-        <f t="shared" si="6"/>
-        <v>694462.37254901964</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="12">
-        <v>38749983</v>
-      </c>
-      <c r="C93" s="10">
-        <f t="shared" si="4"/>
-        <v>37841.7802734375</v>
-      </c>
-      <c r="D93" s="11">
-        <v>177.98</v>
-      </c>
-      <c r="E93" s="11">
-        <v>32</v>
-      </c>
-      <c r="F93" s="5">
-        <f t="shared" si="5"/>
-        <v>5.5618749999999997</v>
-      </c>
-      <c r="G93" s="13">
-        <f t="shared" si="6"/>
-        <v>1210936.96875</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="12">
-        <v>60107612</v>
-      </c>
-      <c r="C94" s="10">
-        <f t="shared" si="4"/>
-        <v>58698.83984375</v>
-      </c>
-      <c r="D94" s="11">
-        <v>204.71</v>
-      </c>
-      <c r="E94" s="11">
-        <v>140</v>
-      </c>
-      <c r="F94" s="5">
-        <f t="shared" si="5"/>
-        <v>1.4622142857142857</v>
-      </c>
-      <c r="G94" s="13">
-        <f t="shared" si="6"/>
-        <v>429340.08571428573</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="12">
-        <v>40542874</v>
-      </c>
-      <c r="C95" s="10">
-        <f t="shared" si="4"/>
-        <v>39592.650390625</v>
-      </c>
-      <c r="D95" s="11">
-        <v>156.36000000000001</v>
-      </c>
-      <c r="E95" s="11">
-        <v>32</v>
-      </c>
-      <c r="F95" s="5">
-        <f t="shared" si="5"/>
-        <v>4.8862500000000004</v>
-      </c>
-      <c r="G95" s="13">
-        <f t="shared" si="6"/>
-        <v>1266964.8125</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="12">
-        <v>13355012</v>
-      </c>
-      <c r="C96" s="10">
-        <f t="shared" si="4"/>
-        <v>13042.00390625</v>
-      </c>
-      <c r="D96" s="11">
-        <v>167.35</v>
-      </c>
-      <c r="E96" s="11">
-        <v>316</v>
-      </c>
-      <c r="F96" s="5">
-        <f t="shared" si="5"/>
-        <v>0.52958860759493664</v>
-      </c>
-      <c r="G96" s="13">
-        <f t="shared" si="6"/>
-        <v>42262.696202531646</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="12">
-        <v>11979003</v>
-      </c>
-      <c r="C97" s="10">
-        <f t="shared" si="4"/>
-        <v>11698.2451171875</v>
-      </c>
-      <c r="D97" s="11">
-        <v>175.38</v>
-      </c>
-      <c r="E97" s="11">
-        <v>58</v>
-      </c>
-      <c r="F97" s="5">
-        <f t="shared" si="5"/>
-        <v>3.0237931034482757</v>
-      </c>
-      <c r="G97" s="13">
-        <f t="shared" si="6"/>
-        <v>206534.53448275861</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="12">
-        <v>112133102</v>
-      </c>
-      <c r="C98" s="10">
-        <f t="shared" si="4"/>
-        <v>109504.982421875</v>
-      </c>
-      <c r="D98" s="11">
-        <v>384.2</v>
-      </c>
-      <c r="E98" s="11">
-        <v>84</v>
-      </c>
-      <c r="F98" s="5">
-        <f t="shared" si="5"/>
-        <v>4.5738095238095235</v>
-      </c>
-      <c r="G98" s="13">
-        <f t="shared" si="6"/>
-        <v>1334917.8809523811</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="12">
-        <v>15741315</v>
-      </c>
-      <c r="C99" s="10">
-        <f t="shared" si="4"/>
-        <v>15372.3779296875</v>
-      </c>
-      <c r="D99" s="11">
-        <v>147.31</v>
-      </c>
-      <c r="E99" s="11">
-        <v>677</v>
-      </c>
-      <c r="F99" s="5">
-        <f t="shared" si="5"/>
-        <v>0.21759231905465287</v>
-      </c>
-      <c r="G99" s="13">
-        <f t="shared" si="6"/>
-        <v>23251.573116691285</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="12">
-        <v>14745834</v>
-      </c>
-      <c r="C100" s="10">
-        <f t="shared" si="4"/>
-        <v>14400.228515625</v>
-      </c>
-      <c r="D100" s="11">
-        <v>313.36</v>
-      </c>
-      <c r="E100" s="11">
-        <v>451</v>
-      </c>
-      <c r="F100" s="5">
-        <f t="shared" si="5"/>
-        <v>0.69481152993348116</v>
-      </c>
-      <c r="G100" s="13">
-        <f t="shared" si="6"/>
-        <v>32695.862527716185</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="12">
-        <v>22202665</v>
-      </c>
-      <c r="C101" s="10">
-        <f t="shared" si="4"/>
-        <v>21682.2900390625</v>
-      </c>
-      <c r="D101" s="11">
-        <v>157.5</v>
-      </c>
-      <c r="E101" s="11">
-        <v>21</v>
-      </c>
-      <c r="F101" s="5">
-        <f t="shared" si="5"/>
-        <v>7.5</v>
-      </c>
-      <c r="G101" s="13">
-        <f t="shared" si="6"/>
-        <v>1057269.7619047619</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="12">
-        <v>12720315</v>
-      </c>
-      <c r="C102" s="10">
-        <f t="shared" si="4"/>
-        <v>12422.1826171875</v>
-      </c>
-      <c r="D102" s="11">
-        <v>221.73</v>
-      </c>
-      <c r="E102" s="11">
-        <v>356</v>
-      </c>
-      <c r="F102" s="5">
-        <f t="shared" si="5"/>
-        <v>0.62283707865168536</v>
-      </c>
-      <c r="G102" s="13">
-        <f t="shared" si="6"/>
-        <v>35731.221910112363</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="12">
-        <v>42137658</v>
-      </c>
-      <c r="C103" s="10">
-        <f t="shared" si="4"/>
-        <v>41150.056640625</v>
-      </c>
-      <c r="D103" s="11">
-        <v>181.67</v>
-      </c>
-      <c r="E103" s="11">
-        <v>94</v>
-      </c>
-      <c r="F103" s="5">
-        <f t="shared" si="5"/>
-        <v>1.932659574468085</v>
-      </c>
-      <c r="G103" s="13">
-        <f t="shared" si="6"/>
-        <v>448272.95744680852</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="12">
-        <v>39648073</v>
-      </c>
-      <c r="C104" s="10">
-        <f t="shared" si="4"/>
-        <v>38718.8212890625</v>
-      </c>
-      <c r="D104" s="11">
-        <v>440.44</v>
-      </c>
-      <c r="E104" s="11">
-        <v>232</v>
-      </c>
-      <c r="F104" s="5">
-        <f t="shared" si="5"/>
-        <v>1.8984482758620689</v>
-      </c>
-      <c r="G104" s="13">
-        <f t="shared" si="6"/>
-        <v>170896.86637931035</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="12">
-        <v>27877359</v>
-      </c>
-      <c r="C105" s="10">
-        <f t="shared" si="4"/>
-        <v>27223.9833984375</v>
-      </c>
-      <c r="D105" s="11">
-        <v>347.03</v>
-      </c>
-      <c r="E105" s="11">
-        <v>2116</v>
-      </c>
-      <c r="F105" s="5">
-        <f t="shared" si="5"/>
-        <v>0.16400283553875236</v>
-      </c>
-      <c r="G105" s="13">
-        <f t="shared" si="6"/>
-        <v>13174.555293005671</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="12">
-        <v>21406952</v>
-      </c>
-      <c r="C106" s="10">
-        <f t="shared" si="4"/>
-        <v>20905.2265625</v>
-      </c>
-      <c r="D106" s="11">
-        <v>212.1</v>
-      </c>
-      <c r="E106" s="11">
-        <v>993</v>
-      </c>
-      <c r="F106" s="5">
-        <f t="shared" si="5"/>
-        <v>0.21359516616314198</v>
-      </c>
-      <c r="G106" s="13">
-        <f t="shared" si="6"/>
-        <v>21557.856998992949</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="12">
-        <v>14853252</v>
-      </c>
-      <c r="C107" s="10">
-        <f t="shared" si="4"/>
-        <v>14505.12890625</v>
-      </c>
-      <c r="D107" s="11">
-        <v>173.78</v>
-      </c>
-      <c r="E107" s="11">
-        <v>40</v>
-      </c>
-      <c r="F107" s="5">
-        <f t="shared" si="5"/>
-        <v>4.3445</v>
-      </c>
-      <c r="G107" s="13">
-        <f t="shared" si="6"/>
-        <v>371331.3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="12">
-        <v>66928253</v>
-      </c>
-      <c r="C108" s="10">
-        <f t="shared" si="4"/>
-        <v>65359.6220703125</v>
-      </c>
-      <c r="D108" s="11">
-        <v>237.35</v>
-      </c>
-      <c r="E108" s="11">
-        <v>104</v>
-      </c>
-      <c r="F108" s="5">
-        <f t="shared" si="5"/>
-        <v>2.2822115384615382</v>
-      </c>
-      <c r="G108" s="13">
-        <f t="shared" si="6"/>
-        <v>643540.89423076925</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="12">
-        <v>105514441</v>
-      </c>
-      <c r="C109" s="10">
-        <f t="shared" si="4"/>
-        <v>103041.4462890625</v>
-      </c>
-      <c r="D109" s="11">
-        <v>360.28</v>
-      </c>
-      <c r="E109" s="11">
-        <v>195</v>
-      </c>
-      <c r="F109" s="5">
-        <f t="shared" si="5"/>
-        <v>1.8475897435897435</v>
-      </c>
-      <c r="G109" s="13">
-        <f t="shared" si="6"/>
-        <v>541099.69743589743</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="12">
-        <v>126887772</v>
-      </c>
-      <c r="C110" s="10">
-        <f t="shared" si="4"/>
-        <v>123913.83984375</v>
-      </c>
-      <c r="D110" s="11">
-        <v>439.23</v>
-      </c>
-      <c r="E110" s="11">
-        <v>199</v>
-      </c>
-      <c r="F110" s="5">
-        <f t="shared" si="5"/>
-        <v>2.2071859296482415</v>
-      </c>
-      <c r="G110" s="13">
-        <f t="shared" si="6"/>
-        <v>637626.99497487443</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="12">
-        <v>14668340</v>
-      </c>
-      <c r="C111" s="10">
-        <f t="shared" si="4"/>
-        <v>14324.55078125</v>
-      </c>
-      <c r="D111" s="11">
-        <v>159.83000000000001</v>
-      </c>
-      <c r="E111" s="11">
-        <v>63</v>
-      </c>
-      <c r="F111" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5369841269841271</v>
-      </c>
-      <c r="G111" s="13">
-        <f t="shared" si="6"/>
-        <v>232830.79365079364</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="12">
-        <v>24834800</v>
-      </c>
-      <c r="C112" s="10">
-        <f t="shared" si="4"/>
-        <v>24252.734375</v>
-      </c>
-      <c r="D112" s="11">
-        <v>224.12</v>
-      </c>
-      <c r="E112" s="11">
-        <v>377</v>
-      </c>
-      <c r="F112" s="5">
-        <f t="shared" si="5"/>
-        <v>0.59448275862068967</v>
-      </c>
-      <c r="G112" s="13">
-        <f t="shared" si="6"/>
-        <v>65874.801061007951</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="12">
-        <v>11268040</v>
-      </c>
-      <c r="C113" s="10">
-        <f t="shared" si="4"/>
-        <v>11003.9453125</v>
-      </c>
-      <c r="D113" s="11">
-        <v>164.24</v>
-      </c>
-      <c r="E113" s="11">
-        <v>665</v>
-      </c>
-      <c r="F113" s="5">
-        <f t="shared" si="5"/>
-        <v>0.24697744360902257</v>
-      </c>
-      <c r="G113" s="13">
-        <f t="shared" si="6"/>
-        <v>16944.42105263158</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="12">
-        <v>81093676</v>
-      </c>
-      <c r="C114" s="10">
-        <f t="shared" si="4"/>
-        <v>79193.04296875</v>
-      </c>
-      <c r="D114" s="11">
-        <v>219.36</v>
-      </c>
-      <c r="E114" s="11">
-        <v>103</v>
-      </c>
-      <c r="F114" s="5">
-        <f t="shared" si="5"/>
-        <v>2.1297087378640778</v>
-      </c>
-      <c r="G114" s="13">
-        <f t="shared" si="6"/>
-        <v>787317.24271844665</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="12">
-        <v>26222772</v>
-      </c>
-      <c r="C115" s="10">
-        <f t="shared" si="4"/>
-        <v>25608.17578125</v>
-      </c>
-      <c r="D115" s="11">
-        <v>169.44</v>
-      </c>
-      <c r="E115" s="11">
-        <v>35</v>
-      </c>
-      <c r="F115" s="5">
-        <f t="shared" si="5"/>
-        <v>4.8411428571428567</v>
-      </c>
-      <c r="G115" s="13">
-        <f t="shared" si="6"/>
-        <v>749222.05714285711</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="12">
-        <v>49567398</v>
-      </c>
-      <c r="C116" s="10">
-        <f t="shared" si="4"/>
-        <v>48405.662109375</v>
-      </c>
-      <c r="D116" s="11">
-        <v>485.97</v>
-      </c>
-      <c r="E116" s="11">
-        <v>171</v>
-      </c>
-      <c r="F116" s="5">
-        <f t="shared" si="5"/>
-        <v>2.8419298245614035</v>
-      </c>
-      <c r="G116" s="13">
-        <f t="shared" si="6"/>
-        <v>289867.82456140348</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="12">
-        <v>31791856</v>
-      </c>
-      <c r="C117" s="10">
-        <f t="shared" si="4"/>
-        <v>31046.734375</v>
-      </c>
-      <c r="D117" s="11">
-        <v>405.87</v>
-      </c>
-      <c r="E117" s="11">
-        <v>481</v>
-      </c>
-      <c r="F117" s="5">
-        <f t="shared" si="5"/>
-        <v>0.84380457380457385</v>
-      </c>
-      <c r="G117" s="13">
-        <f t="shared" si="6"/>
-        <v>66095.334719334714</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="12">
-        <v>4779660</v>
-      </c>
-      <c r="C118" s="10">
-        <f t="shared" si="4"/>
-        <v>4667.63671875</v>
-      </c>
-      <c r="D118" s="11">
-        <v>127.95</v>
-      </c>
-      <c r="E118" s="11">
-        <v>119</v>
-      </c>
-      <c r="F118" s="5">
-        <f t="shared" si="5"/>
-        <v>1.0752100840336134</v>
-      </c>
-      <c r="G118" s="13">
-        <f t="shared" si="6"/>
-        <v>40165.210084033613</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="12">
-        <v>14214895</v>
-      </c>
-      <c r="C119" s="10">
-        <f t="shared" si="4"/>
-        <v>13881.7333984375</v>
-      </c>
-      <c r="D119" s="11">
-        <v>156.69</v>
-      </c>
-      <c r="E119" s="11">
-        <v>36</v>
-      </c>
-      <c r="F119" s="5">
-        <f t="shared" si="5"/>
-        <v>4.3525</v>
-      </c>
-      <c r="G119" s="13">
-        <f t="shared" si="6"/>
-        <v>394858.19444444444</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="12">
-        <v>60394120</v>
-      </c>
-      <c r="C120" s="10">
-        <f t="shared" si="4"/>
-        <v>58978.6328125</v>
-      </c>
-      <c r="D120" s="11">
-        <v>254.77</v>
-      </c>
-      <c r="E120" s="11">
-        <v>99</v>
-      </c>
-      <c r="F120" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5734343434343434</v>
-      </c>
-      <c r="G120" s="13">
-        <f t="shared" si="6"/>
-        <v>610041.61616161617</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="12">
-        <v>7118643</v>
-      </c>
-      <c r="C121" s="10">
-        <f t="shared" si="4"/>
-        <v>6951.7998046875</v>
-      </c>
-      <c r="D121" s="11">
-        <v>193.58</v>
-      </c>
-      <c r="E121" s="11">
-        <v>154</v>
-      </c>
-      <c r="F121" s="5">
-        <f t="shared" si="5"/>
-        <v>1.2570129870129871</v>
-      </c>
-      <c r="G121" s="13">
-        <f t="shared" si="6"/>
-        <v>46224.954545454544</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="12">
-        <v>152089562</v>
-      </c>
-      <c r="C122" s="10">
-        <f t="shared" si="4"/>
-        <v>148524.962890625</v>
-      </c>
-      <c r="D122" s="11">
-        <v>381.32</v>
-      </c>
-      <c r="E122" s="11">
-        <v>243</v>
-      </c>
-      <c r="F122" s="5">
-        <f t="shared" si="5"/>
-        <v>1.5692181069958848</v>
-      </c>
-      <c r="G122" s="13">
-        <f t="shared" si="6"/>
-        <v>625882.97119341569</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="12">
-        <v>104889308</v>
-      </c>
-      <c r="C123" s="10">
-        <f t="shared" si="4"/>
-        <v>102430.96484375</v>
-      </c>
-      <c r="D123" s="11">
-        <v>448.52</v>
-      </c>
-      <c r="E123" s="11">
-        <v>204</v>
-      </c>
-      <c r="F123" s="5">
-        <f t="shared" si="5"/>
-        <v>2.1986274509803923</v>
-      </c>
-      <c r="G123" s="13">
-        <f t="shared" si="6"/>
-        <v>514163.27450980392</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="12">
-        <v>5271179</v>
-      </c>
-      <c r="C124" s="10">
-        <f t="shared" si="4"/>
-        <v>5147.6357421875</v>
-      </c>
-      <c r="D124" s="11">
-        <v>133.75</v>
-      </c>
-      <c r="E124" s="11">
-        <v>114</v>
-      </c>
-      <c r="F124" s="5">
-        <f t="shared" si="5"/>
-        <v>1.1732456140350878</v>
-      </c>
-      <c r="G124" s="13">
-        <f t="shared" si="6"/>
-        <v>46238.412280701756</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="12">
-        <v>14613261</v>
-      </c>
-      <c r="C125" s="10">
-        <f t="shared" si="4"/>
-        <v>14270.7626953125</v>
-      </c>
-      <c r="D125" s="11">
-        <v>165.9</v>
-      </c>
-      <c r="E125" s="11">
-        <v>130</v>
-      </c>
-      <c r="F125" s="5">
-        <f t="shared" si="5"/>
-        <v>1.2761538461538462</v>
-      </c>
-      <c r="G125" s="13">
-        <f t="shared" si="6"/>
-        <v>112409.7</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="12">
-        <v>25193277</v>
-      </c>
-      <c r="C126" s="10">
-        <f t="shared" si="4"/>
-        <v>24602.8095703125</v>
-      </c>
-      <c r="D126" s="11">
-        <v>273.60000000000002</v>
-      </c>
-      <c r="E126" s="11">
-        <v>78</v>
-      </c>
-      <c r="F126" s="5">
-        <f t="shared" si="5"/>
-        <v>3.5076923076923081</v>
-      </c>
-      <c r="G126" s="13">
-        <f t="shared" si="6"/>
-        <v>322990.73076923075</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="12">
-        <v>78458416</v>
-      </c>
-      <c r="C127" s="10">
-        <f t="shared" si="4"/>
-        <v>76619.546875</v>
-      </c>
-      <c r="D127" s="11">
-        <v>285.79000000000002</v>
-      </c>
-      <c r="E127" s="11">
-        <v>102</v>
-      </c>
-      <c r="F127" s="5">
-        <f t="shared" si="5"/>
-        <v>2.8018627450980396</v>
-      </c>
-      <c r="G127" s="13">
-        <f t="shared" si="6"/>
-        <v>769200.15686274506</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="12">
-        <v>36434121</v>
-      </c>
-      <c r="C128" s="10">
-        <f t="shared" si="4"/>
-        <v>35580.1962890625</v>
-      </c>
-      <c r="D128" s="11">
-        <v>334.6</v>
-      </c>
-      <c r="E128" s="11">
-        <v>378</v>
-      </c>
-      <c r="F128" s="5">
-        <f t="shared" si="5"/>
-        <v>0.8851851851851853</v>
-      </c>
-      <c r="G128" s="13">
-        <f t="shared" si="6"/>
-        <v>96386.563492063491</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="12">
-        <v>22652453</v>
-      </c>
-      <c r="C129" s="10">
-        <f t="shared" si="4"/>
-        <v>22121.5361328125</v>
-      </c>
-      <c r="D129" s="11">
-        <v>201.3</v>
-      </c>
-      <c r="E129" s="11">
-        <v>908</v>
-      </c>
-      <c r="F129" s="5">
-        <f t="shared" si="5"/>
-        <v>0.22169603524229076</v>
-      </c>
-      <c r="G129" s="13">
-        <f t="shared" si="6"/>
-        <v>24947.635462555067</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="14">
-        <v>21954173</v>
-      </c>
-      <c r="C130" s="15">
-        <f t="shared" si="4"/>
-        <v>21439.6220703125</v>
-      </c>
-      <c r="D130" s="16">
-        <v>323.3</v>
-      </c>
-      <c r="E130" s="16">
-        <v>861</v>
-      </c>
-      <c r="F130" s="6">
-        <f t="shared" si="5"/>
         <v>0.37549361207897797</v>
       </c>
-      <c r="G130" s="17">
-        <f t="shared" si="6"/>
+      <c r="G130" s="16">
+        <f>B130/E130</f>
         <v>25498.458768873403</v>
       </c>
     </row>
@@ -8624,23 +8685,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB450F1-066E-304B-A651-BCA820B0D2E3}">
+  <dimension ref="B5:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.6721852900235018</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-0.15413504107299245</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.22098043084759725</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="8" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="15.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>134</v>
       </c>
@@ -8669,7 +8793,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>32532210</v>
       </c>
@@ -8707,7 +8831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>39202495</v>
       </c>
@@ -8745,7 +8869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>86553495</v>
       </c>
@@ -8783,7 +8907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>79267560</v>
       </c>
@@ -8821,7 +8945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>183379860</v>
       </c>
@@ -8859,7 +8983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>65086004</v>
       </c>
@@ -8897,7 +9021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>15246262</v>
       </c>
@@ -8935,7 +9059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>37129694</v>
       </c>
@@ -8973,7 +9097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>39562151</v>
       </c>
@@ -9011,7 +9135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>36073765</v>
       </c>
@@ -9049,7 +9173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>60034062</v>
       </c>
@@ -9087,7 +9211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>26594507</v>
       </c>
@@ -9125,7 +9249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>44816476</v>
       </c>
@@ -9163,7 +9287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>123044382</v>
       </c>
@@ -9201,7 +9325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>82684358</v>
       </c>
@@ -9239,7 +9363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>35366936</v>
       </c>
@@ -9277,7 +9401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>36645396</v>
       </c>
@@ -9315,7 +9439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>38012413</v>
       </c>
@@ -9353,7 +9477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>17763421</v>
       </c>
@@ -9391,7 +9515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>98781561</v>
       </c>
@@ -9429,7 +9553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>23521286</v>
       </c>
@@ -9467,7 +9591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>27598062</v>
       </c>
@@ -9505,7 +9629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>78717240</v>
       </c>
@@ -9543,7 +9667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>11093690</v>
       </c>
@@ -9581,7 +9705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>8415945</v>
       </c>
@@ -9619,7 +9743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>21020974</v>
       </c>
@@ -9657,7 +9781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>99114303</v>
       </c>
@@ -9695,7 +9819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>12595779</v>
       </c>
@@ -9733,7 +9857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>22435417</v>
       </c>
@@ -9771,7 +9895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>14713204</v>
       </c>
@@ -9809,7 +9933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>10925822</v>
       </c>
@@ -9847,7 +9971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>9603899</v>
       </c>
@@ -9885,7 +10009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>29274109</v>
       </c>
@@ -9923,7 +10047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>12578567</v>
       </c>
@@ -9961,7 +10085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>134291663</v>
       </c>
@@ -9999,7 +10123,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>98727081</v>
       </c>
@@ -10037,7 +10161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>27994757</v>
       </c>
@@ -10075,7 +10199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>35149649</v>
       </c>
@@ -10113,7 +10237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>45712601</v>
       </c>
@@ -10151,7 +10275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>81687470</v>
       </c>
@@ -10189,7 +10313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>33278259</v>
       </c>
@@ -10227,7 +10351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>33182781</v>
       </c>
@@ -10265,7 +10389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>24124567</v>
       </c>
@@ -10303,7 +10427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>117718737</v>
       </c>
@@ -10341,7 +10465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>35647012</v>
       </c>
@@ -10379,7 +10503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>68986179</v>
       </c>
@@ -10417,7 +10541,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>102887756</v>
       </c>
@@ -10455,7 +10579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>8666482</v>
       </c>
@@ -10493,7 +10617,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>34913259</v>
       </c>
@@ -10531,7 +10655,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>30736755</v>
       </c>
@@ -10569,7 +10693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>23153645</v>
       </c>
@@ -10607,7 +10731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>6462422</v>
       </c>
@@ -10645,7 +10769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>137961720</v>
       </c>
@@ -10683,7 +10807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>34040175</v>
       </c>
@@ -10721,7 +10845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>45608803</v>
       </c>
@@ -10759,7 +10883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>21975562</v>
       </c>
@@ -10797,7 +10921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>43764146</v>
       </c>
@@ -10835,7 +10959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>8498889</v>
       </c>
@@ -10873,7 +10997,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>89822744</v>
       </c>
@@ -10911,7 +11035,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>45849337</v>
       </c>
@@ -10949,7 +11073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>111235816</v>
       </c>
@@ -10987,7 +11111,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>11384057</v>
       </c>
@@ -11025,7 +11149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>103624684</v>
       </c>
@@ -11063,7 +11187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>60394405</v>
       </c>
@@ -11101,7 +11225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>117337794</v>
       </c>
@@ -11139,7 +11263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>136879796</v>
       </c>
@@ -11177,7 +11301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>47209514</v>
       </c>
@@ -11215,7 +11339,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>46052806</v>
       </c>
@@ -11253,7 +11377,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>14117962</v>
       </c>
@@ -11291,7 +11415,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>27882961</v>
       </c>
@@ -11329,7 +11453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>12397768</v>
       </c>
@@ -11367,7 +11491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>35489411</v>
       </c>
@@ -11405,7 +11529,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>52342500</v>
       </c>
@@ -11443,7 +11567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>82972304</v>
       </c>
@@ -11481,7 +11605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>16188632</v>
       </c>
@@ -11519,7 +11643,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>9966528</v>
       </c>
@@ -11557,7 +11681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>132504522</v>
       </c>
@@ -11595,7 +11719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>119686483</v>
       </c>
@@ -11633,7 +11757,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>49111124</v>
       </c>
@@ -11671,7 +11795,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>37076433</v>
       </c>
@@ -11709,7 +11833,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>17811593</v>
       </c>
@@ -11747,7 +11871,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <v>65826210</v>
       </c>
@@ -11785,7 +11909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>25354902</v>
       </c>
@@ -11823,7 +11947,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>11700264</v>
       </c>
@@ -11861,7 +11985,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>12763123</v>
       </c>
@@ -11899,7 +12023,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <v>82716993</v>
       </c>
@@ -11937,7 +12061,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>18891669</v>
       </c>
@@ -11975,7 +12099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>52994332</v>
       </c>
@@ -12013,7 +12137,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
         <v>19433661</v>
       </c>
@@ -12051,7 +12175,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
         <v>70835162</v>
       </c>
@@ -12089,7 +12213,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
         <v>38749983</v>
       </c>
@@ -12127,7 +12251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
         <v>60107612</v>
       </c>
@@ -12165,7 +12289,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
         <v>40542874</v>
       </c>
@@ -12203,7 +12327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
         <v>13355012</v>
       </c>
@@ -12241,7 +12365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
         <v>11979003</v>
       </c>
@@ -12279,7 +12403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <v>112133102</v>
       </c>
@@ -12317,7 +12441,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>15741315</v>
       </c>
@@ -12355,7 +12479,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>14745834</v>
       </c>
@@ -12393,7 +12517,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>22202665</v>
       </c>
@@ -12431,7 +12555,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <v>12720315</v>
       </c>
@@ -12469,7 +12593,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <v>42137658</v>
       </c>
@@ -12507,7 +12631,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>39648073</v>
       </c>
@@ -12545,7 +12669,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>27877359</v>
       </c>
@@ -12583,7 +12707,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>21406952</v>
       </c>
@@ -12621,7 +12745,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <v>14853252</v>
       </c>
@@ -12659,7 +12783,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <v>66928253</v>
       </c>
@@ -12697,7 +12821,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <v>105514441</v>
       </c>
@@ -12735,7 +12859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
         <v>126887772</v>
       </c>
@@ -12773,7 +12897,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <v>14668340</v>
       </c>
@@ -12811,7 +12935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <v>24834800</v>
       </c>
@@ -12849,7 +12973,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>11268040</v>
       </c>
@@ -12887,7 +13011,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <v>81093676</v>
       </c>
@@ -12925,7 +13049,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <v>26222772</v>
       </c>
@@ -12963,7 +13087,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <v>49567398</v>
       </c>
@@ -13001,7 +13125,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <v>31791856</v>
       </c>
@@ -13039,7 +13163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <v>4779660</v>
       </c>
@@ -13077,7 +13201,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <v>14214895</v>
       </c>
@@ -13115,7 +13239,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <v>60394120</v>
       </c>
@@ -13153,7 +13277,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <v>7118643</v>
       </c>
@@ -13191,7 +13315,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B122" s="1">
         <v>152089562</v>
       </c>
@@ -13229,7 +13353,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <v>104889308</v>
       </c>
@@ -13267,7 +13391,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <v>5271179</v>
       </c>
@@ -13305,7 +13429,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <v>14613261</v>
       </c>
@@ -13343,7 +13467,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <v>25193277</v>
       </c>
@@ -13381,7 +13505,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <v>78458416</v>
       </c>
@@ -13419,7 +13543,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <v>36434121</v>
       </c>
@@ -13457,7 +13581,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <v>22652453</v>
       </c>
@@ -13495,7 +13619,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <v>21954173</v>
       </c>
@@ -13538,24 +13662,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>134</v>
       </c>
@@ -13566,19 +13690,19 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I3" s="20" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>32532210</v>
       </c>
@@ -13604,7 +13728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>39202495</v>
       </c>
@@ -13630,7 +13754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>86553495</v>
       </c>
@@ -13656,7 +13780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>79267560</v>
       </c>
@@ -13682,7 +13806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>183379860</v>
       </c>
@@ -13708,7 +13832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>65086004</v>
       </c>
@@ -13734,7 +13858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>15246262</v>
       </c>
@@ -13760,7 +13884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>37129694</v>
       </c>
@@ -13786,7 +13910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>39562151</v>
       </c>
@@ -13812,7 +13936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>36073765</v>
       </c>
@@ -13838,7 +13962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>60034062</v>
       </c>
@@ -13864,7 +13988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>26594507</v>
       </c>
@@ -13890,7 +14014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>44816476</v>
       </c>
@@ -13916,7 +14040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>123044382</v>
       </c>
@@ -13942,7 +14066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>82684358</v>
       </c>
@@ -13968,7 +14092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>35366936</v>
       </c>
@@ -13994,7 +14118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>36645396</v>
       </c>
@@ -14020,7 +14144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>38012413</v>
       </c>
@@ -14046,7 +14170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>17763421</v>
       </c>
@@ -14072,7 +14196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>98781561</v>
       </c>
@@ -14098,7 +14222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>23521286</v>
       </c>
@@ -14124,7 +14248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>27598062</v>
       </c>
@@ -14150,7 +14274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>78717240</v>
       </c>
@@ -14176,7 +14300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>11093690</v>
       </c>
@@ -14202,7 +14326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>8415945</v>
       </c>
@@ -14228,7 +14352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>21020974</v>
       </c>
@@ -14254,7 +14378,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>99114303</v>
       </c>
@@ -14280,7 +14404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>12595779</v>
       </c>
@@ -14306,7 +14430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>22435417</v>
       </c>
@@ -14332,7 +14456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>14713204</v>
       </c>
@@ -14358,7 +14482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>10925822</v>
       </c>
@@ -14384,7 +14508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>9603899</v>
       </c>
@@ -14410,7 +14534,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>29274109</v>
       </c>
@@ -14436,7 +14560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>12578567</v>
       </c>
@@ -14462,7 +14586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>134291663</v>
       </c>
@@ -14488,7 +14612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>98727081</v>
       </c>
@@ -14514,7 +14638,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>27994757</v>
       </c>
@@ -14540,7 +14664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>35149649</v>
       </c>
@@ -14566,7 +14690,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>45712601</v>
       </c>
@@ -14592,7 +14716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>81687470</v>
       </c>
@@ -14618,7 +14742,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>33278259</v>
       </c>
@@ -14644,7 +14768,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>33182781</v>
       </c>
@@ -14670,7 +14794,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>24124567</v>
       </c>
@@ -14696,7 +14820,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>117718737</v>
       </c>
@@ -14722,7 +14846,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>35647012</v>
       </c>
@@ -14748,7 +14872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>68986179</v>
       </c>
@@ -14774,7 +14898,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>102887756</v>
       </c>
@@ -14800,7 +14924,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>8666482</v>
       </c>
@@ -14826,7 +14950,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>34913259</v>
       </c>
@@ -14852,7 +14976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>30736755</v>
       </c>
@@ -14878,7 +15002,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>23153645</v>
       </c>
@@ -14904,7 +15028,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>6462422</v>
       </c>
@@ -14930,7 +15054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>137961720</v>
       </c>
@@ -14956,7 +15080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>34040175</v>
       </c>
@@ -14982,7 +15106,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>45608803</v>
       </c>
@@ -15008,7 +15132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>21975562</v>
       </c>
@@ -15034,7 +15158,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>43764146</v>
       </c>
@@ -15060,7 +15184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>8498889</v>
       </c>
@@ -15086,7 +15210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>89822744</v>
       </c>
@@ -15112,7 +15236,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>45849337</v>
       </c>
@@ -15138,7 +15262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>111235816</v>
       </c>
@@ -15164,7 +15288,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>11384057</v>
       </c>
@@ -15190,7 +15314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>103624684</v>
       </c>
@@ -15216,7 +15340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>60394405</v>
       </c>
@@ -15242,7 +15366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>117337794</v>
       </c>
@@ -15268,7 +15392,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>136879796</v>
       </c>
@@ -15294,7 +15418,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>47209514</v>
       </c>
@@ -15320,7 +15444,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>46052806</v>
       </c>
@@ -15346,7 +15470,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>14117962</v>
       </c>
@@ -15372,7 +15496,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>27882961</v>
       </c>
@@ -15398,7 +15522,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>12397768</v>
       </c>
@@ -15424,7 +15548,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>35489411</v>
       </c>
@@ -15450,7 +15574,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>52342500</v>
       </c>
@@ -15476,7 +15600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>82972304</v>
       </c>
@@ -15502,7 +15626,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>16188632</v>
       </c>
@@ -15528,7 +15652,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>9966528</v>
       </c>
@@ -15554,7 +15678,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>132504522</v>
       </c>
@@ -15580,7 +15704,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>119686483</v>
       </c>
@@ -15606,7 +15730,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>49111124</v>
       </c>
@@ -15632,7 +15756,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>37076433</v>
       </c>
@@ -15658,7 +15782,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <v>17811593</v>
       </c>
@@ -15684,7 +15808,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>65826210</v>
       </c>
@@ -15698,7 +15822,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>25354902</v>
       </c>
@@ -15712,7 +15836,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>11700264</v>
       </c>
@@ -15726,7 +15850,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <v>12763123</v>
       </c>
@@ -15740,7 +15864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>82716993</v>
       </c>
@@ -15754,7 +15878,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>18891669</v>
       </c>
@@ -15768,7 +15892,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
         <v>52994332</v>
       </c>
@@ -15782,7 +15906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
         <v>19433661</v>
       </c>
@@ -15796,7 +15920,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
         <v>70835162</v>
       </c>
@@ -15810,7 +15934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
         <v>38749983</v>
       </c>
@@ -15824,7 +15948,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
         <v>60107612</v>
       </c>
@@ -15838,7 +15962,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
         <v>40542874</v>
       </c>
@@ -15852,7 +15976,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
         <v>13355012</v>
       </c>
@@ -15866,7 +15990,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <v>11979003</v>
       </c>
@@ -15880,7 +16004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>112133102</v>
       </c>
@@ -15894,7 +16018,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>15741315</v>
       </c>
@@ -15908,7 +16032,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>14745834</v>
       </c>
@@ -15922,7 +16046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <v>22202665</v>
       </c>
@@ -15936,7 +16060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <v>12720315</v>
       </c>
@@ -15950,7 +16074,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>42137658</v>
       </c>
@@ -15964,7 +16088,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>39648073</v>
       </c>
@@ -15978,7 +16102,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>27877359</v>
       </c>
@@ -15992,7 +16116,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <v>21406952</v>
       </c>
@@ -16006,7 +16130,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <v>14853252</v>
       </c>
@@ -16020,7 +16144,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <v>66928253</v>
       </c>
@@ -16034,7 +16158,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
         <v>105514441</v>
       </c>
@@ -16048,7 +16172,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <v>126887772</v>
       </c>
@@ -16062,7 +16186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <v>14668340</v>
       </c>
@@ -16076,7 +16200,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>24834800</v>
       </c>
@@ -16090,7 +16214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <v>11268040</v>
       </c>
@@ -16104,7 +16228,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <v>81093676</v>
       </c>
@@ -16118,7 +16242,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <v>26222772</v>
       </c>
@@ -16132,7 +16256,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <v>49567398</v>
       </c>
@@ -16146,7 +16270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <v>31791856</v>
       </c>
@@ -16160,7 +16284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <v>4779660</v>
       </c>
@@ -16174,7 +16298,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <v>14214895</v>
       </c>
@@ -16188,7 +16312,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <v>60394120</v>
       </c>
@@ -16202,7 +16326,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="1">
         <v>7118643</v>
       </c>
@@ -16216,7 +16340,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <v>152089562</v>
       </c>
@@ -16230,7 +16354,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <v>104889308</v>
       </c>
@@ -16244,7 +16368,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <v>5271179</v>
       </c>
@@ -16258,7 +16382,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <v>14613261</v>
       </c>
@@ -16272,7 +16396,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <v>25193277</v>
       </c>
@@ -16286,7 +16410,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <v>78458416</v>
       </c>
@@ -16300,7 +16424,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <v>36434121</v>
       </c>
@@ -16314,7 +16438,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <v>22652453</v>
       </c>
@@ -16328,7 +16452,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <v>21954173</v>
       </c>
@@ -16343,7 +16467,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E2:E131"/>
+  <autoFilter ref="E2:E131" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
